--- a/result.xlsx
+++ b/result.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qianzhiqiang/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qianzhiqiang/PycharmProjects/NetBenchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED6A840-82F6-3644-A57B-397ECF0959CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565CE4CE-98B6-1D49-9360-D6D3C2B765A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="540" windowWidth="28240" windowHeight="16400" activeTab="1" xr2:uid="{A9C37B03-D3ED-DD4C-96A1-B014332CD34F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="28">
   <si>
     <t>cora</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,6 +129,22 @@
   </si>
   <si>
     <t>hope</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>netsmf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gcn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gcn2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -524,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0428EAC-9C8D-1A4A-9ED3-B464BF9D83B8}">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView zoomScale="124" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView topLeftCell="D1" zoomScale="124" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -972,6 +988,30 @@
       <c r="G7">
         <v>0.71930000000000005</v>
       </c>
+      <c r="R7">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="S7">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="T7">
+        <v>0.5978</v>
+      </c>
+      <c r="U7">
+        <v>0.36059999999999998</v>
+      </c>
+      <c r="V7">
+        <v>0.33239999999999997</v>
+      </c>
+      <c r="W7">
+        <v>0.2777</v>
+      </c>
+      <c r="X7">
+        <v>0.51019999999999999</v>
+      </c>
+      <c r="Y7">
+        <v>0.50429999999999997</v>
+      </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
@@ -1030,6 +1070,24 @@
       </c>
       <c r="S8">
         <v>0.48570000000000002</v>
+      </c>
+      <c r="T8">
+        <v>0.5181</v>
+      </c>
+      <c r="U8">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="V8">
+        <v>0.2631</v>
+      </c>
+      <c r="W8">
+        <v>0.10780000000000001</v>
+      </c>
+      <c r="X8">
+        <v>0.3755</v>
+      </c>
+      <c r="Y8">
+        <v>0.35930000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1097,7 +1155,7 @@
   <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1538,6 +1596,12 @@
       <c r="G7">
         <v>0.88200000000000001</v>
       </c>
+      <c r="R7">
+        <v>0.99539999999999995</v>
+      </c>
+      <c r="S7">
+        <v>0.99370000000000003</v>
+      </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
@@ -1596,6 +1660,24 @@
       </c>
       <c r="S8">
         <v>0.89990000000000003</v>
+      </c>
+      <c r="T8">
+        <v>0.87280000000000002</v>
+      </c>
+      <c r="U8">
+        <v>0.88219999999999998</v>
+      </c>
+      <c r="V8">
+        <v>0.85629999999999995</v>
+      </c>
+      <c r="W8">
+        <v>0.8498</v>
+      </c>
+      <c r="X8">
+        <v>0.88780000000000003</v>
+      </c>
+      <c r="Y8">
+        <v>0.85880000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1630,10 +1712,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49071FE1-A904-7348-BAAE-72F9A46C7610}">
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:Y14"/>
   <sheetViews>
-    <sheetView zoomScale="139" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="O1" zoomScale="139" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2080,6 +2162,12 @@
       <c r="G7">
         <v>0.78449999999999998</v>
       </c>
+      <c r="R7">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="S7">
+        <v>0.6724</v>
+      </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
@@ -2139,6 +2227,24 @@
       <c r="S8">
         <v>0.58030000000000004</v>
       </c>
+      <c r="T8">
+        <v>0.52210000000000001</v>
+      </c>
+      <c r="U8">
+        <v>0.29859999999999998</v>
+      </c>
+      <c r="V8">
+        <v>0.28349999999999997</v>
+      </c>
+      <c r="W8">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="X8">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="Y8">
+        <v>0.41499999999999998</v>
+      </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
@@ -2148,6 +2254,26 @@
     <row r="10" spans="1:25">
       <c r="A10" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qianzhiqiang/PycharmProjects/NetBenchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565CE4CE-98B6-1D49-9360-D6D3C2B765A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CC6B63-F670-D147-9DE0-CBA1C099A338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="540" windowWidth="28240" windowHeight="16400" activeTab="1" xr2:uid="{A9C37B03-D3ED-DD4C-96A1-B014332CD34F}"/>
+    <workbookView xWindow="20" yWindow="520" windowWidth="28240" windowHeight="16400" activeTab="2" xr2:uid="{A9C37B03-D3ED-DD4C-96A1-B014332CD34F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="31">
   <si>
     <t>cora</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,6 +145,18 @@
   </si>
   <si>
     <t>gcn2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>node2vec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gae</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -538,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0428EAC-9C8D-1A4A-9ED3-B464BF9D83B8}">
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="124" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView zoomScale="124" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1128,6 +1140,41 @@
       </c>
       <c r="Y10">
         <v>0.52969999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1152,10 +1199,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B71108-CCFD-BD42-997A-0DECA2451E6F}">
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView zoomScale="138" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1688,6 +1735,41 @@
     <row r="10" spans="1:25">
       <c r="A10" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1712,10 +1794,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49071FE1-A904-7348-BAAE-72F9A46C7610}">
-  <dimension ref="A1:Y14"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2274,6 +2356,21 @@
     <row r="14" spans="1:25">
       <c r="A14" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qianzhiqiang/PycharmProjects/NetBenchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CC6B63-F670-D147-9DE0-CBA1C099A338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA83AB6-895F-384F-B885-83B5C4776146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="520" windowWidth="28240" windowHeight="16400" activeTab="2" xr2:uid="{A9C37B03-D3ED-DD4C-96A1-B014332CD34F}"/>
+    <workbookView xWindow="20" yWindow="520" windowWidth="28240" windowHeight="16400" xr2:uid="{A9C37B03-D3ED-DD4C-96A1-B014332CD34F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -164,7 +164,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -185,6 +185,14 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -217,7 +225,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -225,6 +233,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -235,6 +246,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -552,61 +566,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0428EAC-9C8D-1A4A-9ED3-B464BF9D83B8}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView zoomScale="124" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" zoomScale="124" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:25">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="4" t="s">
+      <c r="K1" s="6"/>
+      <c r="L1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="3" t="s">
+      <c r="M1" s="5"/>
+      <c r="N1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3" t="s">
+      <c r="O1" s="4"/>
+      <c r="P1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3" t="s">
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3" t="s">
+      <c r="S1" s="4"/>
+      <c r="T1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3" t="s">
+      <c r="U1" s="4"/>
+      <c r="V1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3" t="s">
+      <c r="W1" s="4"/>
+      <c r="X1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" s="3"/>
+      <c r="Y1" s="4"/>
     </row>
     <row r="2" spans="1:25">
       <c r="B2" t="s">
@@ -1103,7 +1117,7 @@
       </c>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1146,6 +1160,48 @@
       <c r="A11" t="s">
         <v>24</v>
       </c>
+      <c r="B11">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="C11">
+        <v>0.83020000000000005</v>
+      </c>
+      <c r="D11">
+        <v>0.66849999999999998</v>
+      </c>
+      <c r="E11">
+        <v>0.66579999999999995</v>
+      </c>
+      <c r="F11">
+        <v>0.72089999999999999</v>
+      </c>
+      <c r="G11">
+        <v>0.71220000000000006</v>
+      </c>
+      <c r="H11">
+        <v>0.73140000000000005</v>
+      </c>
+      <c r="I11">
+        <v>0.66449999999999998</v>
+      </c>
+      <c r="J11">
+        <v>0.64380000000000004</v>
+      </c>
+      <c r="K11">
+        <v>0.60060000000000002</v>
+      </c>
+      <c r="L11">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="M11">
+        <v>4.48E-2</v>
+      </c>
+      <c r="N11">
+        <v>0.83130000000000004</v>
+      </c>
+      <c r="O11">
+        <v>0.82130000000000003</v>
+      </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
@@ -1153,27 +1209,51 @@
       </c>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" t="s">
+      <c r="A13" s="7" t="s">
         <v>26</v>
       </c>
+      <c r="D13">
+        <v>0.98709999999999998</v>
+      </c>
+      <c r="E13">
+        <v>0.98709999999999998</v>
+      </c>
+      <c r="F13">
+        <v>0.64370000000000005</v>
+      </c>
+      <c r="G13">
+        <v>0.63849999999999996</v>
+      </c>
+      <c r="H13">
+        <v>0.98470000000000002</v>
+      </c>
+      <c r="I13">
+        <v>0.98170000000000002</v>
+      </c>
+      <c r="J13">
+        <v>0.81389999999999996</v>
+      </c>
+      <c r="K13">
+        <v>0.78449999999999998</v>
+      </c>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:25">
-      <c r="A16" t="s">
+      <c r="A16" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" t="s">
+      <c r="A17" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1202,60 +1282,60 @@
   <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView zoomScale="138" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:25">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3" t="s">
+      <c r="K1" s="4"/>
+      <c r="L1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3" t="s">
+      <c r="M1" s="4"/>
+      <c r="N1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3" t="s">
+      <c r="O1" s="4"/>
+      <c r="P1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3" t="s">
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3" t="s">
+      <c r="S1" s="4"/>
+      <c r="T1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3" t="s">
+      <c r="U1" s="4"/>
+      <c r="V1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3" t="s">
+      <c r="W1" s="4"/>
+      <c r="X1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" s="3"/>
+      <c r="Y1" s="4"/>
     </row>
     <row r="2" spans="1:25">
       <c r="B2" t="s">
@@ -1741,6 +1821,48 @@
       <c r="A11" t="s">
         <v>24</v>
       </c>
+      <c r="B11">
+        <v>0.95379999999999998</v>
+      </c>
+      <c r="C11">
+        <v>0.96460000000000001</v>
+      </c>
+      <c r="D11">
+        <v>0.70879999999999999</v>
+      </c>
+      <c r="E11">
+        <v>0.67579999999999996</v>
+      </c>
+      <c r="F11">
+        <v>0.78879999999999995</v>
+      </c>
+      <c r="G11">
+        <v>0.81010000000000004</v>
+      </c>
+      <c r="H11">
+        <v>0.99409999999999998</v>
+      </c>
+      <c r="I11">
+        <v>0.99460000000000004</v>
+      </c>
+      <c r="J11">
+        <v>0.92020000000000002</v>
+      </c>
+      <c r="K11">
+        <v>0.94469999999999998</v>
+      </c>
+      <c r="L11">
+        <v>0.97030000000000005</v>
+      </c>
+      <c r="M11">
+        <v>0.95650000000000002</v>
+      </c>
+      <c r="N11">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="O11">
+        <v>0.98719999999999997</v>
+      </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
@@ -1750,6 +1872,18 @@
     <row r="13" spans="1:25">
       <c r="A13" t="s">
         <v>26</v>
+      </c>
+      <c r="B13">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="C13">
+        <v>0.74380000000000002</v>
+      </c>
+      <c r="F13">
+        <v>0.62729999999999997</v>
+      </c>
+      <c r="G13">
+        <v>0.66800000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1796,61 +1930,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49071FE1-A904-7348-BAAE-72F9A46C7610}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="D1" zoomScale="139" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:25">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3" t="s">
+      <c r="K1" s="4"/>
+      <c r="L1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3" t="s">
+      <c r="M1" s="4"/>
+      <c r="N1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3" t="s">
+      <c r="O1" s="4"/>
+      <c r="P1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3" t="s">
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3" t="s">
+      <c r="S1" s="4"/>
+      <c r="T1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3" t="s">
+      <c r="U1" s="4"/>
+      <c r="V1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3" t="s">
+      <c r="W1" s="4"/>
+      <c r="X1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" s="3"/>
+      <c r="Y1" s="4"/>
     </row>
     <row r="2" spans="1:25">
       <c r="B2" t="s">
@@ -2342,6 +2476,48 @@
       <c r="A11" t="s">
         <v>24</v>
       </c>
+      <c r="B11">
+        <v>0.83779999999999999</v>
+      </c>
+      <c r="C11">
+        <v>0.82979999999999998</v>
+      </c>
+      <c r="D11">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="E11">
+        <v>0.66359999999999997</v>
+      </c>
+      <c r="F11">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="G11">
+        <v>0.7137</v>
+      </c>
+      <c r="H11">
+        <v>0.73319999999999996</v>
+      </c>
+      <c r="I11">
+        <v>0.66659999999999997</v>
+      </c>
+      <c r="J11">
+        <v>0.64649999999999996</v>
+      </c>
+      <c r="K11">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="L11">
+        <v>0.85809999999999997</v>
+      </c>
+      <c r="M11">
+        <v>4.0899999999999999E-2</v>
+      </c>
+      <c r="N11">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="O11">
+        <v>0.82420000000000004</v>
+      </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
@@ -2351,6 +2527,36 @@
     <row r="13" spans="1:25">
       <c r="A13" t="s">
         <v>26</v>
+      </c>
+      <c r="B13">
+        <v>0.99629999999999996</v>
+      </c>
+      <c r="C13">
+        <v>0.99570000000000003</v>
+      </c>
+      <c r="D13">
+        <v>0.99590000000000001</v>
+      </c>
+      <c r="E13">
+        <v>0.99590000000000001</v>
+      </c>
+      <c r="F13">
+        <v>0.45069999999999999</v>
+      </c>
+      <c r="G13">
+        <v>0.42730000000000001</v>
+      </c>
+      <c r="H13">
+        <v>0.98240000000000005</v>
+      </c>
+      <c r="I13">
+        <v>0.97850000000000004</v>
+      </c>
+      <c r="J13">
+        <v>0.96150000000000002</v>
+      </c>
+      <c r="K13">
+        <v>0.95679999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:25">

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qianzhiqiang/PycharmProjects/NetBenchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA83AB6-895F-384F-B885-83B5C4776146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEE38A8-D9C9-824F-A5A8-7C9CD9770EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="520" windowWidth="28240" windowHeight="16400" xr2:uid="{A9C37B03-D3ED-DD4C-96A1-B014332CD34F}"/>
   </bookViews>
@@ -164,7 +164,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -196,19 +196,31 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u val="double"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u val="double"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -225,11 +237,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -249,6 +258,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,60 +588,64 @@
   <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="12" max="13" width="10.83203125" style="9"/>
+    <col min="16" max="17" width="10.83203125" style="9"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:25">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="5" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="5" t="s">
+      <c r="K1" s="5"/>
+      <c r="L1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="4" t="s">
+      <c r="M1" s="7"/>
+      <c r="N1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4" t="s">
+      <c r="O1" s="3"/>
+      <c r="P1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4" t="s">
+      <c r="Q1" s="10"/>
+      <c r="R1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4" t="s">
+      <c r="S1" s="3"/>
+      <c r="T1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4" t="s">
+      <c r="U1" s="3"/>
+      <c r="V1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4" t="s">
+      <c r="W1" s="3"/>
+      <c r="X1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" s="4"/>
+      <c r="Y1" s="3"/>
     </row>
     <row r="2" spans="1:25">
       <c r="B2" t="s">
@@ -653,10 +678,10 @@
       <c r="K2" t="s">
         <v>19</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="N2" t="s">
@@ -665,10 +690,10 @@
       <c r="O2" t="s">
         <v>19</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="R2" t="s">
@@ -730,10 +755,10 @@
       <c r="K3">
         <v>0.70020000000000004</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="8">
         <v>0.97450000000000003</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="8">
         <v>0.56789999999999996</v>
       </c>
       <c r="N3">
@@ -742,10 +767,10 @@
       <c r="O3">
         <v>0.84450000000000003</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="8">
         <v>0.67710000000000004</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="8">
         <v>4.8099999999999997E-2</v>
       </c>
       <c r="R3">
@@ -807,10 +832,10 @@
       <c r="K4">
         <v>0.67020000000000002</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="8">
         <v>0.85699999999999998</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="8">
         <v>4.36E-2</v>
       </c>
       <c r="N4">
@@ -819,10 +844,10 @@
       <c r="O4">
         <v>0.80889999999999995</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="8">
         <v>0.67689999999999995</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="8">
         <v>4.8300000000000003E-2</v>
       </c>
       <c r="R4">
@@ -884,10 +909,10 @@
       <c r="K5">
         <v>0.46679999999999999</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="8">
         <v>0.85780000000000001</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="8">
         <v>4.7800000000000002E-2</v>
       </c>
       <c r="N5">
@@ -896,10 +921,10 @@
       <c r="O5">
         <v>0.74839999999999995</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="8">
         <v>0.67589999999999995</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="8">
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="R5">
@@ -961,12 +986,16 @@
       <c r="K6">
         <v>0.57620000000000005</v>
       </c>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
       <c r="N6">
         <v>0.83420000000000005</v>
       </c>
       <c r="O6">
         <v>0.82299999999999995</v>
       </c>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
       <c r="R6">
         <v>0.66439999999999999</v>
       </c>
@@ -1014,6 +1043,10 @@
       <c r="G7">
         <v>0.71930000000000005</v>
       </c>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
       <c r="R7">
         <v>0.68200000000000005</v>
       </c>
@@ -1073,10 +1106,10 @@
       <c r="K8">
         <v>0.71279999999999999</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="8">
         <v>0.94210000000000005</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="8">
         <v>0.2833</v>
       </c>
       <c r="N8">
@@ -1085,10 +1118,10 @@
       <c r="O8">
         <v>0.84689999999999999</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="8">
         <v>0.68969999999999998</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="8">
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="R8">
@@ -1117,18 +1150,24 @@
       </c>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="P10">
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="P10" s="8">
         <v>0.67579999999999996</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="8">
         <v>3.5400000000000001E-2</v>
       </c>
       <c r="R10">
@@ -1190,10 +1229,10 @@
       <c r="K11">
         <v>0.60060000000000002</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="8">
         <v>0.85799999999999998</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="8">
         <v>4.48E-2</v>
       </c>
       <c r="N11">
@@ -1202,14 +1241,88 @@
       <c r="O11">
         <v>0.82130000000000003</v>
       </c>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
+      <c r="B12">
+        <v>0.85370000000000001</v>
+      </c>
+      <c r="C12">
+        <v>0.84330000000000005</v>
+      </c>
+      <c r="D12">
+        <v>0.63449999999999995</v>
+      </c>
+      <c r="E12">
+        <v>0.63039999999999996</v>
+      </c>
+      <c r="F12">
+        <v>0.72170000000000001</v>
+      </c>
+      <c r="G12">
+        <v>0.71260000000000001</v>
+      </c>
+      <c r="H12">
+        <v>0.72870000000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.66349999999999998</v>
+      </c>
+      <c r="J12">
+        <v>0.71530000000000005</v>
+      </c>
+      <c r="K12">
+        <v>0.67320000000000002</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0.85850000000000004</v>
+      </c>
+      <c r="M12" s="8">
+        <v>5.11E-2</v>
+      </c>
+      <c r="N12">
+        <v>0.83120000000000005</v>
+      </c>
+      <c r="O12">
+        <v>0.82050000000000001</v>
+      </c>
+      <c r="P12" s="8">
+        <v>0.67730000000000001</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>5.0500000000000003E-2</v>
+      </c>
+      <c r="R12">
+        <v>0.68589999999999995</v>
+      </c>
+      <c r="S12">
+        <v>0.68969999999999998</v>
+      </c>
+      <c r="T12">
+        <v>0.43070000000000003</v>
+      </c>
+      <c r="U12">
+        <v>0.25750000000000001</v>
+      </c>
+      <c r="V12">
+        <v>0.2409</v>
+      </c>
+      <c r="W12">
+        <v>0.17560000000000001</v>
+      </c>
+      <c r="X12">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="Y12">
+        <v>0.56299999999999994</v>
+      </c>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D13">
@@ -1236,24 +1349,26 @@
       <c r="K13">
         <v>0.78449999999999998</v>
       </c>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1282,60 +1397,60 @@
   <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView zoomScale="138" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:25">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4" t="s">
+      <c r="K1" s="3"/>
+      <c r="L1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4" t="s">
+      <c r="M1" s="3"/>
+      <c r="N1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4" t="s">
+      <c r="O1" s="3"/>
+      <c r="P1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4" t="s">
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4" t="s">
+      <c r="S1" s="3"/>
+      <c r="T1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4" t="s">
+      <c r="U1" s="3"/>
+      <c r="V1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4" t="s">
+      <c r="W1" s="3"/>
+      <c r="X1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" s="4"/>
+      <c r="Y1" s="3"/>
     </row>
     <row r="2" spans="1:25">
       <c r="B2" t="s">
@@ -1460,10 +1575,10 @@
       <c r="P3">
         <v>0.98119999999999996</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="1">
         <v>0.97050000000000003</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="1">
         <v>0.99019999999999997</v>
       </c>
       <c r="S3">
@@ -1867,6 +1982,48 @@
     <row r="12" spans="1:25">
       <c r="A12" t="s">
         <v>25</v>
+      </c>
+      <c r="B12">
+        <v>0.99739999999999995</v>
+      </c>
+      <c r="C12">
+        <v>0.99629999999999996</v>
+      </c>
+      <c r="D12">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="E12">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="F12">
+        <v>0.94610000000000005</v>
+      </c>
+      <c r="G12">
+        <v>0.93589999999999995</v>
+      </c>
+      <c r="H12">
+        <v>0.99760000000000004</v>
+      </c>
+      <c r="I12">
+        <v>0.99709999999999999</v>
+      </c>
+      <c r="J12">
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="K12">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="L12">
+        <v>0.98860000000000003</v>
+      </c>
+      <c r="M12">
+        <v>0.96609999999999996</v>
+      </c>
+      <c r="N12">
+        <v>0.99670000000000003</v>
+      </c>
+      <c r="O12">
+        <v>0.99519999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1930,61 +2087,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49071FE1-A904-7348-BAAE-72F9A46C7610}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView zoomScale="139" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:25">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4" t="s">
+      <c r="K1" s="3"/>
+      <c r="L1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4" t="s">
+      <c r="M1" s="3"/>
+      <c r="N1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4" t="s">
+      <c r="O1" s="3"/>
+      <c r="P1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4" t="s">
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4" t="s">
+      <c r="S1" s="3"/>
+      <c r="T1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4" t="s">
+      <c r="U1" s="3"/>
+      <c r="V1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4" t="s">
+      <c r="W1" s="3"/>
+      <c r="X1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" s="4"/>
+      <c r="Y1" s="3"/>
     </row>
     <row r="2" spans="1:25">
       <c r="B2" t="s">
@@ -2097,19 +2254,19 @@
       <c r="L3">
         <v>0.97719999999999996</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>0.61450000000000005</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <v>0.8619</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="1">
         <v>0.85899999999999999</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="1">
         <v>0.67669999999999997</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="1">
         <v>4.5900000000000003E-2</v>
       </c>
       <c r="R3">
@@ -2522,6 +2679,78 @@
     <row r="12" spans="1:25">
       <c r="A12" t="s">
         <v>25</v>
+      </c>
+      <c r="B12">
+        <v>0.85</v>
+      </c>
+      <c r="C12">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="D12">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="E12">
+        <v>0.64029999999999998</v>
+      </c>
+      <c r="F12">
+        <v>0.71719999999999995</v>
+      </c>
+      <c r="G12">
+        <v>0.70809999999999995</v>
+      </c>
+      <c r="H12">
+        <v>0.72670000000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.66120000000000001</v>
+      </c>
+      <c r="J12">
+        <v>0.70209999999999995</v>
+      </c>
+      <c r="K12">
+        <v>0.65820000000000001</v>
+      </c>
+      <c r="L12">
+        <v>0.85870000000000002</v>
+      </c>
+      <c r="M12">
+        <v>4.8300000000000003E-2</v>
+      </c>
+      <c r="N12">
+        <v>0.83189999999999997</v>
+      </c>
+      <c r="O12">
+        <v>0.82150000000000001</v>
+      </c>
+      <c r="P12">
+        <v>0.67679999999999996</v>
+      </c>
+      <c r="Q12">
+        <v>4.99E-2</v>
+      </c>
+      <c r="R12">
+        <v>0.68989999999999996</v>
+      </c>
+      <c r="S12">
+        <v>0.69259999999999999</v>
+      </c>
+      <c r="T12">
+        <v>0.4703</v>
+      </c>
+      <c r="U12">
+        <v>0.27589999999999998</v>
+      </c>
+      <c r="V12">
+        <v>0.2427</v>
+      </c>
+      <c r="W12">
+        <v>0.1767</v>
+      </c>
+      <c r="X12">
+        <v>0.55930000000000002</v>
+      </c>
+      <c r="Y12">
+        <v>0.55730000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:25">

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qianzhiqiang/PycharmProjects/NetBenchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEE38A8-D9C9-824F-A5A8-7C9CD9770EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F665624-16E6-EF42-83AB-08708AA66406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="520" windowWidth="28240" windowHeight="16400" xr2:uid="{A9C37B03-D3ED-DD4C-96A1-B014332CD34F}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="28240" windowHeight="16400" xr2:uid="{A9C37B03-D3ED-DD4C-96A1-B014332CD34F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="29">
   <si>
     <t>cora</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,15 +58,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>neil001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pubmed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ppi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -164,7 +156,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -191,15 +183,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u val="double"/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -237,7 +220,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -245,6 +228,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -256,20 +245,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,145 +562,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0428EAC-9C8D-1A4A-9ED3-B464BF9D83B8}">
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="B14" sqref="B14:M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="12" max="13" width="10.83203125" style="9"/>
-    <col min="16" max="17" width="10.83203125" style="9"/>
+    <col min="12" max="13" width="10.83203125" style="4"/>
+    <col min="16" max="17" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:21">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="7" t="s">
+      <c r="K1" s="7"/>
+      <c r="L1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="7"/>
-      <c r="N1" s="3" t="s">
+      <c r="M1" s="5"/>
+      <c r="N1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="10" t="s">
+      <c r="O1" s="5"/>
+      <c r="P1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="3" t="s">
+      <c r="Q1" s="7"/>
+      <c r="R1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3" t="s">
+      <c r="S1" s="5"/>
+      <c r="T1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3" t="s">
+      <c r="U1" s="5"/>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" t="s">
         <v>10</v>
-      </c>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y1" s="3"/>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" t="s">
-        <v>19</v>
-      </c>
-      <c r="T2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U2" t="s">
-        <v>19</v>
-      </c>
-      <c r="V2" t="s">
-        <v>18</v>
-      </c>
-      <c r="W2" t="s">
-        <v>19</v>
-      </c>
-      <c r="X2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
-      <c r="A3" t="s">
-        <v>12</v>
       </c>
       <c r="B3">
         <v>0.86329999999999996</v>
@@ -755,52 +712,40 @@
       <c r="K3">
         <v>0.70020000000000004</v>
       </c>
-      <c r="L3" s="8">
-        <v>0.97450000000000003</v>
-      </c>
-      <c r="M3" s="8">
-        <v>0.56789999999999996</v>
+      <c r="L3">
+        <v>0.84930000000000005</v>
+      </c>
+      <c r="M3">
+        <v>0.84450000000000003</v>
       </c>
       <c r="N3">
-        <v>0.84930000000000005</v>
+        <v>0.61829999999999996</v>
       </c>
       <c r="O3">
-        <v>0.84450000000000003</v>
+        <v>0.61890000000000001</v>
       </c>
       <c r="P3" s="8">
-        <v>0.67710000000000004</v>
+        <v>0.57010000000000005</v>
       </c>
       <c r="Q3" s="8">
-        <v>4.8099999999999997E-2</v>
+        <v>0.30730000000000002</v>
       </c>
       <c r="R3">
-        <v>0.61829999999999996</v>
+        <v>0.25719999999999998</v>
       </c>
       <c r="S3">
-        <v>0.61890000000000001</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="T3">
-        <v>0.57010000000000005</v>
+        <v>0.38890000000000002</v>
       </c>
       <c r="U3">
-        <v>0.30730000000000002</v>
-      </c>
-      <c r="V3">
-        <v>0.25719999999999998</v>
-      </c>
-      <c r="W3">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="X3">
-        <v>0.38890000000000002</v>
-      </c>
-      <c r="Y3">
         <v>0.38269999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>0.82310000000000005</v>
@@ -832,52 +777,40 @@
       <c r="K4">
         <v>0.67020000000000002</v>
       </c>
-      <c r="L4" s="8">
-        <v>0.85699999999999998</v>
-      </c>
-      <c r="M4" s="8">
-        <v>4.36E-2</v>
+      <c r="L4">
+        <v>0.81979999999999997</v>
+      </c>
+      <c r="M4">
+        <v>0.80889999999999995</v>
       </c>
       <c r="N4">
-        <v>0.81979999999999997</v>
+        <v>0.64459999999999995</v>
       </c>
       <c r="O4">
-        <v>0.80889999999999995</v>
+        <v>0.64629999999999999</v>
       </c>
       <c r="P4" s="8">
-        <v>0.67689999999999995</v>
+        <v>0.54610000000000003</v>
       </c>
       <c r="Q4" s="8">
-        <v>4.8300000000000003E-2</v>
+        <v>0.28360000000000002</v>
       </c>
       <c r="R4">
-        <v>0.64459999999999995</v>
+        <v>0.25030000000000002</v>
       </c>
       <c r="S4">
-        <v>0.64629999999999999</v>
+        <v>0.1595</v>
       </c>
       <c r="T4">
-        <v>0.54610000000000003</v>
+        <v>0.56769999999999998</v>
       </c>
       <c r="U4">
-        <v>0.28360000000000002</v>
-      </c>
-      <c r="V4">
-        <v>0.25030000000000002</v>
-      </c>
-      <c r="W4">
-        <v>0.1595</v>
-      </c>
-      <c r="X4">
-        <v>0.56769999999999998</v>
-      </c>
-      <c r="Y4">
         <v>0.56310000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0.76690000000000003</v>
@@ -909,52 +842,40 @@
       <c r="K5">
         <v>0.46679999999999999</v>
       </c>
-      <c r="L5" s="8">
-        <v>0.85780000000000001</v>
-      </c>
-      <c r="M5" s="8">
-        <v>4.7800000000000002E-2</v>
+      <c r="L5">
+        <v>0.76859999999999995</v>
+      </c>
+      <c r="M5">
+        <v>0.74839999999999995</v>
       </c>
       <c r="N5">
-        <v>0.76859999999999995</v>
+        <v>0.60819999999999996</v>
       </c>
       <c r="O5">
-        <v>0.74839999999999995</v>
+        <v>0.60960000000000003</v>
       </c>
       <c r="P5" s="8">
-        <v>0.67589999999999995</v>
+        <v>0.60550000000000004</v>
       </c>
       <c r="Q5" s="8">
-        <v>3.6999999999999998E-2</v>
+        <v>0.33579999999999999</v>
       </c>
       <c r="R5">
-        <v>0.60819999999999996</v>
+        <v>0.24629999999999999</v>
       </c>
       <c r="S5">
-        <v>0.60960000000000003</v>
+        <v>0.1618</v>
       </c>
       <c r="T5">
-        <v>0.60550000000000004</v>
+        <v>0.4047</v>
       </c>
       <c r="U5">
-        <v>0.33579999999999999</v>
-      </c>
-      <c r="V5">
-        <v>0.24629999999999999</v>
-      </c>
-      <c r="W5">
-        <v>0.1618</v>
-      </c>
-      <c r="X5">
-        <v>0.4047</v>
-      </c>
-      <c r="Y5">
         <v>0.40189999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>0.84560000000000002</v>
@@ -986,44 +907,40 @@
       <c r="K6">
         <v>0.57620000000000005</v>
       </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
+      <c r="L6">
+        <v>0.83420000000000005</v>
+      </c>
+      <c r="M6">
+        <v>0.82299999999999995</v>
+      </c>
       <c r="N6">
-        <v>0.83420000000000005</v>
+        <v>0.66439999999999999</v>
       </c>
       <c r="O6">
-        <v>0.82299999999999995</v>
-      </c>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
+        <v>0.6673</v>
+      </c>
+      <c r="P6" s="8">
+        <v>0.45450000000000002</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>0.2472</v>
+      </c>
       <c r="R6">
-        <v>0.66439999999999999</v>
+        <v>0.2417</v>
       </c>
       <c r="S6">
-        <v>0.6673</v>
+        <v>0.17510000000000001</v>
       </c>
       <c r="T6">
-        <v>0.45450000000000002</v>
+        <v>0.50429999999999997</v>
       </c>
       <c r="U6">
-        <v>0.2472</v>
-      </c>
-      <c r="V6">
-        <v>0.2417</v>
-      </c>
-      <c r="W6">
-        <v>0.17510000000000001</v>
-      </c>
-      <c r="X6">
-        <v>0.50429999999999997</v>
-      </c>
-      <c r="Y6">
         <v>0.49890000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>0.87219999999999998</v>
@@ -1043,38 +960,36 @@
       <c r="G7">
         <v>0.71930000000000005</v>
       </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="O7">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="P7" s="8">
+        <v>0.5978</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>0.36059999999999998</v>
+      </c>
       <c r="R7">
-        <v>0.68200000000000005</v>
+        <v>0.33239999999999997</v>
       </c>
       <c r="S7">
-        <v>0.68500000000000005</v>
+        <v>0.2777</v>
       </c>
       <c r="T7">
-        <v>0.5978</v>
+        <v>0.51019999999999999</v>
       </c>
       <c r="U7">
-        <v>0.36059999999999998</v>
-      </c>
-      <c r="V7">
-        <v>0.33239999999999997</v>
-      </c>
-      <c r="W7">
-        <v>0.2777</v>
-      </c>
-      <c r="X7">
-        <v>0.51019999999999999</v>
-      </c>
-      <c r="Y7">
         <v>0.50429999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>0.87329999999999997</v>
@@ -1106,98 +1021,112 @@
       <c r="K8">
         <v>0.71279999999999999</v>
       </c>
-      <c r="L8" s="8">
-        <v>0.94210000000000005</v>
-      </c>
-      <c r="M8" s="8">
-        <v>0.2833</v>
+      <c r="L8">
+        <v>0.8488</v>
+      </c>
+      <c r="M8">
+        <v>0.84689999999999999</v>
       </c>
       <c r="N8">
-        <v>0.8488</v>
+        <v>0.50890000000000002</v>
       </c>
       <c r="O8">
-        <v>0.84689999999999999</v>
+        <v>0.48570000000000002</v>
       </c>
       <c r="P8" s="8">
-        <v>0.68969999999999998</v>
+        <v>0.5181</v>
       </c>
       <c r="Q8" s="8">
-        <v>7.9000000000000001E-2</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="R8">
-        <v>0.50890000000000002</v>
+        <v>0.2631</v>
       </c>
       <c r="S8">
-        <v>0.48570000000000002</v>
+        <v>0.10780000000000001</v>
       </c>
       <c r="T8">
-        <v>0.5181</v>
+        <v>0.3755</v>
       </c>
       <c r="U8">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="V8">
-        <v>0.2631</v>
-      </c>
-      <c r="W8">
-        <v>0.10780000000000001</v>
-      </c>
-      <c r="X8">
-        <v>0.3755</v>
-      </c>
-      <c r="Y8">
         <v>0.35930000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:21">
       <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9"/>
+      <c r="M9"/>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>0.80159999999999998</v>
+      </c>
+      <c r="C10">
+        <v>0.79090000000000005</v>
+      </c>
+      <c r="D10">
+        <v>0.6915</v>
+      </c>
+      <c r="E10">
+        <v>0.68910000000000005</v>
+      </c>
+      <c r="F10">
+        <v>0.75509999999999999</v>
+      </c>
+      <c r="G10">
+        <v>0.74750000000000005</v>
+      </c>
+      <c r="H10">
+        <v>0.68810000000000004</v>
+      </c>
+      <c r="I10">
+        <v>0.60189999999999999</v>
+      </c>
+      <c r="J10">
+        <v>0.58389999999999997</v>
+      </c>
+      <c r="K10">
+        <v>0.52370000000000005</v>
+      </c>
+      <c r="L10">
+        <v>0.80330000000000001</v>
+      </c>
+      <c r="M10">
+        <v>0.79</v>
+      </c>
+      <c r="N10">
+        <v>0.64859999999999995</v>
+      </c>
+      <c r="O10">
+        <v>0.65239999999999998</v>
+      </c>
+      <c r="P10" s="8">
+        <v>0.5857</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="R10">
+        <v>0.2465</v>
+      </c>
+      <c r="S10">
+        <v>0.17230000000000001</v>
+      </c>
+      <c r="T10">
+        <v>0.51480000000000004</v>
+      </c>
+      <c r="U10">
+        <v>0.51190000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" t="s">
         <v>22</v>
-      </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-    </row>
-    <row r="10" spans="1:25">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="P10" s="8">
-        <v>0.67579999999999996</v>
-      </c>
-      <c r="Q10" s="8">
-        <v>3.5400000000000001E-2</v>
-      </c>
-      <c r="R10">
-        <v>0.64419999999999999</v>
-      </c>
-      <c r="S10">
-        <v>0.6472</v>
-      </c>
-      <c r="T10">
-        <v>0.54610000000000003</v>
-      </c>
-      <c r="U10">
-        <v>0.36149999999999999</v>
-      </c>
-      <c r="V10">
-        <v>0.2457</v>
-      </c>
-      <c r="W10">
-        <v>0.17180000000000001</v>
-      </c>
-      <c r="X10">
-        <v>0.53139999999999998</v>
-      </c>
-      <c r="Y10">
-        <v>0.52969999999999995</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
-      <c r="A11" t="s">
-        <v>24</v>
       </c>
       <c r="B11">
         <v>0.83899999999999997</v>
@@ -1229,24 +1158,40 @@
       <c r="K11">
         <v>0.60060000000000002</v>
       </c>
-      <c r="L11" s="8">
-        <v>0.85799999999999998</v>
-      </c>
-      <c r="M11" s="8">
-        <v>4.48E-2</v>
+      <c r="L11">
+        <v>0.83130000000000004</v>
+      </c>
+      <c r="M11">
+        <v>0.82130000000000003</v>
       </c>
       <c r="N11">
-        <v>0.83130000000000004</v>
+        <v>0.69740000000000002</v>
       </c>
       <c r="O11">
-        <v>0.82130000000000003</v>
-      </c>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-    </row>
-    <row r="12" spans="1:25">
+        <v>0.70030000000000003</v>
+      </c>
+      <c r="P11" s="8">
+        <v>0.55779999999999996</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>0.25669999999999998</v>
+      </c>
+      <c r="R11">
+        <v>0.24440000000000001</v>
+      </c>
+      <c r="S11">
+        <v>0.1741</v>
+      </c>
+      <c r="T11">
+        <v>0.57830000000000004</v>
+      </c>
+      <c r="U11">
+        <v>0.57669999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12">
         <v>0.85370000000000001</v>
@@ -1278,52 +1223,46 @@
       <c r="K12">
         <v>0.67320000000000002</v>
       </c>
-      <c r="L12" s="8">
-        <v>0.85850000000000004</v>
-      </c>
-      <c r="M12" s="8">
-        <v>5.11E-2</v>
+      <c r="L12">
+        <v>0.83120000000000005</v>
+      </c>
+      <c r="M12">
+        <v>0.82050000000000001</v>
       </c>
       <c r="N12">
-        <v>0.83120000000000005</v>
+        <v>0.68589999999999995</v>
       </c>
       <c r="O12">
-        <v>0.82050000000000001</v>
+        <v>0.68969999999999998</v>
       </c>
       <c r="P12" s="8">
-        <v>0.67730000000000001</v>
+        <v>0.43070000000000003</v>
       </c>
       <c r="Q12" s="8">
-        <v>5.0500000000000003E-2</v>
+        <v>0.25750000000000001</v>
       </c>
       <c r="R12">
-        <v>0.68589999999999995</v>
+        <v>0.2409</v>
       </c>
       <c r="S12">
-        <v>0.68969999999999998</v>
+        <v>0.17560000000000001</v>
       </c>
       <c r="T12">
-        <v>0.43070000000000003</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="U12">
-        <v>0.25750000000000001</v>
-      </c>
-      <c r="V12">
-        <v>0.2409</v>
-      </c>
-      <c r="W12">
-        <v>0.17560000000000001</v>
-      </c>
-      <c r="X12">
-        <v>0.56499999999999995</v>
-      </c>
-      <c r="Y12">
         <v>0.56299999999999994</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
-      <c r="A13" s="6" t="s">
-        <v>26</v>
+    <row r="13" spans="1:21">
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>0.85780000000000001</v>
+      </c>
+      <c r="C13">
+        <v>0.83589999999999998</v>
       </c>
       <c r="D13">
         <v>0.98709999999999998</v>
@@ -1349,32 +1288,56 @@
       <c r="K13">
         <v>0.78449999999999998</v>
       </c>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-    </row>
-    <row r="14" spans="1:25">
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13">
+        <v>0.59770000000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.59419999999999995</v>
+      </c>
+      <c r="P13" s="8">
+        <v>0.49809999999999999</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>0.1933</v>
+      </c>
+      <c r="R13">
+        <v>0.34689999999999999</v>
+      </c>
+      <c r="S13">
+        <v>0.28210000000000002</v>
+      </c>
+      <c r="T13">
+        <v>0.36890000000000001</v>
+      </c>
+      <c r="U13">
+        <v>0.3604</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="2" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25">
-      <c r="A15" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
-      <c r="A16" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="X1:Y1"/>
+  <mergeCells count="10">
+    <mergeCell ref="T1:U1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
@@ -1384,8 +1347,6 @@
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1394,141 +1355,121 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B71108-CCFD-BD42-997A-0DECA2451E6F}">
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView zoomScale="138" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView topLeftCell="H1" zoomScale="138" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:25">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:21">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3" t="s">
+      <c r="K1" s="5"/>
+      <c r="L1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3" t="s">
+      <c r="M1" s="5"/>
+      <c r="N1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3" t="s">
+      <c r="O1" s="5"/>
+      <c r="P1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3" t="s">
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3" t="s">
+      <c r="S1" s="5"/>
+      <c r="T1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3" t="s">
+      <c r="U1" s="5"/>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" t="s">
         <v>10</v>
-      </c>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y1" s="3"/>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" t="s">
-        <v>21</v>
-      </c>
-      <c r="T2" t="s">
-        <v>20</v>
-      </c>
-      <c r="U2" t="s">
-        <v>21</v>
-      </c>
-      <c r="V2" t="s">
-        <v>20</v>
-      </c>
-      <c r="W2" t="s">
-        <v>21</v>
-      </c>
-      <c r="X2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
-      <c r="A3" t="s">
-        <v>12</v>
       </c>
       <c r="B3">
         <v>0.99590000000000001</v>
@@ -1561,51 +1502,39 @@
         <v>0.99219999999999997</v>
       </c>
       <c r="L3">
-        <v>0.99790000000000001</v>
+        <v>0.99670000000000003</v>
       </c>
       <c r="M3">
-        <v>0.99819999999999998</v>
-      </c>
-      <c r="N3">
-        <v>0.99670000000000003</v>
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.99019999999999997</v>
       </c>
       <c r="O3">
-        <v>0.99639999999999995</v>
+        <v>0.98650000000000004</v>
       </c>
       <c r="P3">
-        <v>0.98119999999999996</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>0.97050000000000003</v>
-      </c>
-      <c r="R3" s="1">
-        <v>0.99019999999999997</v>
+        <v>0.95660000000000001</v>
+      </c>
+      <c r="Q3">
+        <v>0.96430000000000005</v>
+      </c>
+      <c r="R3">
+        <v>0.98550000000000004</v>
       </c>
       <c r="S3">
-        <v>0.98650000000000004</v>
+        <v>0.98899999999999999</v>
       </c>
       <c r="T3">
-        <v>0.95660000000000001</v>
+        <v>0.93340000000000001</v>
       </c>
       <c r="U3">
-        <v>0.96430000000000005</v>
-      </c>
-      <c r="V3">
-        <v>0.98550000000000004</v>
-      </c>
-      <c r="W3">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="X3">
-        <v>0.93340000000000001</v>
-      </c>
-      <c r="Y3">
         <v>0.90690000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>0.99850000000000005</v>
@@ -1638,51 +1567,39 @@
         <v>0.997</v>
       </c>
       <c r="L4">
-        <v>0.99919999999999998</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="M4">
-        <v>0.99909999999999999</v>
+        <v>0.997</v>
       </c>
       <c r="N4">
-        <v>0.99829999999999997</v>
+        <v>0.98960000000000004</v>
       </c>
       <c r="O4">
-        <v>0.997</v>
+        <v>0.9829</v>
       </c>
       <c r="P4">
-        <v>0.98280000000000001</v>
+        <v>0.89749999999999996</v>
       </c>
       <c r="Q4">
-        <v>0.97909999999999997</v>
+        <v>0.86880000000000002</v>
       </c>
       <c r="R4">
-        <v>0.98960000000000004</v>
+        <v>0.99439999999999995</v>
       </c>
       <c r="S4">
-        <v>0.9829</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="T4">
-        <v>0.89749999999999996</v>
+        <v>0.93589999999999995</v>
       </c>
       <c r="U4">
-        <v>0.86880000000000002</v>
-      </c>
-      <c r="V4">
-        <v>0.99439999999999995</v>
-      </c>
-      <c r="W4">
-        <v>0.99299999999999999</v>
-      </c>
-      <c r="X4">
-        <v>0.93589999999999995</v>
-      </c>
-      <c r="Y4">
         <v>0.93149999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0.90090000000000003</v>
@@ -1709,51 +1626,39 @@
         <v>0.89319999999999999</v>
       </c>
       <c r="L5">
-        <v>0.4304</v>
+        <v>0.85880000000000001</v>
       </c>
       <c r="M5">
-        <v>0.41799999999999998</v>
+        <v>0.84809999999999997</v>
       </c>
       <c r="N5">
-        <v>0.85880000000000001</v>
+        <v>0.73260000000000003</v>
       </c>
       <c r="O5">
-        <v>0.84809999999999997</v>
+        <v>0.72819999999999996</v>
       </c>
       <c r="P5">
-        <v>0.93830000000000002</v>
+        <v>0.60419999999999996</v>
       </c>
       <c r="Q5">
-        <v>0.93859999999999999</v>
+        <v>0.61939999999999995</v>
       </c>
       <c r="R5">
-        <v>0.73260000000000003</v>
+        <v>0.84189999999999998</v>
       </c>
       <c r="S5">
-        <v>0.72819999999999996</v>
+        <v>0.81179999999999997</v>
       </c>
       <c r="T5">
-        <v>0.60419999999999996</v>
+        <v>0.73099999999999998</v>
       </c>
       <c r="U5">
-        <v>0.61939999999999995</v>
-      </c>
-      <c r="V5">
-        <v>0.84189999999999998</v>
-      </c>
-      <c r="W5">
-        <v>0.81179999999999997</v>
-      </c>
-      <c r="X5">
-        <v>0.73099999999999998</v>
-      </c>
-      <c r="Y5">
         <v>0.68630000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>0.98570000000000002</v>
@@ -1785,40 +1690,40 @@
       <c r="K6">
         <v>0.94540000000000002</v>
       </c>
+      <c r="L6">
+        <v>0.99560000000000004</v>
+      </c>
+      <c r="M6">
+        <v>0.99429999999999996</v>
+      </c>
       <c r="N6">
-        <v>0.99560000000000004</v>
+        <v>0.96579999999999999</v>
       </c>
       <c r="O6">
-        <v>0.99429999999999996</v>
+        <v>0.9496</v>
+      </c>
+      <c r="P6">
+        <v>0.93289999999999995</v>
+      </c>
+      <c r="Q6">
+        <v>0.94010000000000005</v>
       </c>
       <c r="R6">
-        <v>0.96579999999999999</v>
+        <v>0.98629999999999995</v>
       </c>
       <c r="S6">
-        <v>0.9496</v>
+        <v>0.98429999999999995</v>
       </c>
       <c r="T6">
-        <v>0.93289999999999995</v>
+        <v>0.85609999999999997</v>
       </c>
       <c r="U6">
-        <v>0.94010000000000005</v>
-      </c>
-      <c r="V6">
-        <v>0.98629999999999995</v>
-      </c>
-      <c r="W6">
-        <v>0.98429999999999995</v>
-      </c>
-      <c r="X6">
-        <v>0.85609999999999997</v>
-      </c>
-      <c r="Y6">
         <v>0.81179999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>0.99970000000000003</v>
@@ -1838,16 +1743,16 @@
       <c r="G7">
         <v>0.88200000000000001</v>
       </c>
-      <c r="R7">
+      <c r="N7">
         <v>0.99539999999999995</v>
       </c>
-      <c r="S7">
+      <c r="O7">
         <v>0.99370000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>0.9788</v>
@@ -1880,61 +1785,97 @@
         <v>0.97270000000000001</v>
       </c>
       <c r="L8">
-        <v>0.99639999999999995</v>
+        <v>0.97340000000000004</v>
       </c>
       <c r="M8">
-        <v>0.99280000000000002</v>
+        <v>0.96340000000000003</v>
       </c>
       <c r="N8">
-        <v>0.97340000000000004</v>
+        <v>0.92059999999999997</v>
       </c>
       <c r="O8">
-        <v>0.96340000000000003</v>
+        <v>0.89990000000000003</v>
       </c>
       <c r="P8">
-        <v>0.77929999999999999</v>
+        <v>0.87280000000000002</v>
       </c>
       <c r="Q8">
-        <v>0.73809999999999998</v>
+        <v>0.88219999999999998</v>
       </c>
       <c r="R8">
-        <v>0.92059999999999997</v>
+        <v>0.85629999999999995</v>
       </c>
       <c r="S8">
-        <v>0.89990000000000003</v>
+        <v>0.8498</v>
       </c>
       <c r="T8">
-        <v>0.87280000000000002</v>
+        <v>0.88780000000000003</v>
       </c>
       <c r="U8">
-        <v>0.88219999999999998</v>
-      </c>
-      <c r="V8">
-        <v>0.85629999999999995</v>
-      </c>
-      <c r="W8">
-        <v>0.8498</v>
-      </c>
-      <c r="X8">
-        <v>0.88780000000000003</v>
-      </c>
-      <c r="Y8">
         <v>0.85880000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>0.98519999999999996</v>
+      </c>
+      <c r="C10">
+        <v>0.98540000000000005</v>
+      </c>
+      <c r="D10">
+        <v>0.92530000000000001</v>
+      </c>
+      <c r="E10">
+        <v>0.90229999999999999</v>
+      </c>
+      <c r="F10">
+        <v>0.91890000000000005</v>
+      </c>
+      <c r="G10">
+        <v>0.90769999999999995</v>
+      </c>
+      <c r="H10">
+        <v>0.97989999999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.9798</v>
+      </c>
+      <c r="J10">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="K10">
+        <v>0.95760000000000001</v>
+      </c>
+      <c r="N10">
+        <v>0.9506</v>
+      </c>
+      <c r="O10">
+        <v>0.91769999999999996</v>
+      </c>
+      <c r="P10">
+        <v>0.88280000000000003</v>
+      </c>
+      <c r="Q10">
+        <v>0.81340000000000001</v>
+      </c>
+      <c r="R10">
+        <v>0.97</v>
+      </c>
+      <c r="S10">
+        <v>0.94730000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
-      <c r="A11" t="s">
-        <v>24</v>
       </c>
       <c r="B11">
         <v>0.95379999999999998</v>
@@ -1967,21 +1908,39 @@
         <v>0.94469999999999998</v>
       </c>
       <c r="L11">
-        <v>0.97030000000000005</v>
+        <v>0.98570000000000002</v>
       </c>
       <c r="M11">
-        <v>0.95650000000000002</v>
+        <v>0.98719999999999997</v>
       </c>
       <c r="N11">
-        <v>0.98570000000000002</v>
+        <v>0.86109999999999998</v>
       </c>
       <c r="O11">
-        <v>0.98719999999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
+        <v>0.83940000000000003</v>
+      </c>
+      <c r="P11">
+        <v>0.61760000000000004</v>
+      </c>
+      <c r="Q11">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="R11">
+        <v>0.93389999999999995</v>
+      </c>
+      <c r="S11">
+        <v>0.92210000000000003</v>
+      </c>
+      <c r="T11">
+        <v>0.8629</v>
+      </c>
+      <c r="U11">
+        <v>0.82769999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12">
         <v>0.99739999999999995</v>
@@ -2014,21 +1973,39 @@
         <v>0.99770000000000003</v>
       </c>
       <c r="L12">
-        <v>0.98860000000000003</v>
+        <v>0.99670000000000003</v>
       </c>
       <c r="M12">
-        <v>0.96609999999999996</v>
+        <v>0.99519999999999997</v>
       </c>
       <c r="N12">
-        <v>0.99670000000000003</v>
+        <v>0.98529999999999995</v>
       </c>
       <c r="O12">
-        <v>0.99519999999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
+        <v>0.96189999999999998</v>
+      </c>
+      <c r="P12">
+        <v>0.98319999999999996</v>
+      </c>
+      <c r="Q12">
+        <v>0.95589999999999997</v>
+      </c>
+      <c r="R12">
+        <v>0.98970000000000002</v>
+      </c>
+      <c r="S12">
+        <v>0.98219999999999996</v>
+      </c>
+      <c r="T12">
+        <v>0.97819999999999996</v>
+      </c>
+      <c r="U12">
+        <v>0.96440000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>0.71799999999999997</v>
@@ -2042,30 +2019,48 @@
       <c r="G13">
         <v>0.66800000000000004</v>
       </c>
-    </row>
-    <row r="14" spans="1:25">
+      <c r="N13">
+        <v>0.8347</v>
+      </c>
+      <c r="O13">
+        <v>0.84630000000000005</v>
+      </c>
+      <c r="P13">
+        <v>0.7994</v>
+      </c>
+      <c r="Q13">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="R13">
+        <v>0.8548</v>
+      </c>
+      <c r="S13">
+        <v>0.85199999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
-      <c r="A16" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="X1:Y1"/>
+  <mergeCells count="10">
+    <mergeCell ref="T1:U1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
@@ -2075,8 +2070,6 @@
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2085,141 +2078,121 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49071FE1-A904-7348-BAAE-72F9A46C7610}">
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView zoomScale="139" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="E1" zoomScale="139" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:25">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:21">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3" t="s">
+      <c r="K1" s="5"/>
+      <c r="L1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3" t="s">
+      <c r="M1" s="5"/>
+      <c r="N1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3" t="s">
+      <c r="O1" s="5"/>
+      <c r="P1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3" t="s">
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3" t="s">
+      <c r="S1" s="5"/>
+      <c r="T1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3" t="s">
+      <c r="U1" s="5"/>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" t="s">
         <v>10</v>
-      </c>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y1" s="3"/>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" t="s">
-        <v>19</v>
-      </c>
-      <c r="T2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U2" t="s">
-        <v>19</v>
-      </c>
-      <c r="V2" t="s">
-        <v>18</v>
-      </c>
-      <c r="W2" t="s">
-        <v>19</v>
-      </c>
-      <c r="X2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
-      <c r="A3" t="s">
-        <v>12</v>
       </c>
       <c r="B3">
         <v>0.85740000000000005</v>
@@ -2251,52 +2224,40 @@
       <c r="K3">
         <v>0.69920000000000004</v>
       </c>
-      <c r="L3">
-        <v>0.97719999999999996</v>
+      <c r="L3" s="1">
+        <v>0.8619</v>
       </c>
       <c r="M3" s="1">
-        <v>0.61450000000000005</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0.8619</v>
-      </c>
-      <c r="O3" s="1">
         <v>0.85899999999999999</v>
       </c>
-      <c r="P3" s="1">
-        <v>0.67669999999999997</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>4.5900000000000003E-2</v>
+      <c r="N3">
+        <v>0.66349999999999998</v>
+      </c>
+      <c r="O3">
+        <v>0.66749999999999998</v>
+      </c>
+      <c r="P3">
+        <v>0.63790000000000002</v>
+      </c>
+      <c r="Q3">
+        <v>0.36309999999999998</v>
       </c>
       <c r="R3">
-        <v>0.66349999999999998</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="S3">
-        <v>0.66749999999999998</v>
+        <v>0.32079999999999997</v>
       </c>
       <c r="T3">
-        <v>0.63790000000000002</v>
+        <v>0.51890000000000003</v>
       </c>
       <c r="U3">
-        <v>0.36309999999999998</v>
-      </c>
-      <c r="V3">
-        <v>0.35899999999999999</v>
-      </c>
-      <c r="W3">
-        <v>0.32079999999999997</v>
-      </c>
-      <c r="X3">
-        <v>0.51890000000000003</v>
-      </c>
-      <c r="Y3">
         <v>0.51759999999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>0.84450000000000003</v>
@@ -2329,51 +2290,39 @@
         <v>0.61519999999999997</v>
       </c>
       <c r="L4">
-        <v>0.85809999999999997</v>
+        <v>0.81340000000000001</v>
       </c>
       <c r="M4">
-        <v>4.4600000000000001E-2</v>
+        <v>0.79959999999999998</v>
       </c>
       <c r="N4">
-        <v>0.81340000000000001</v>
+        <v>0.67279999999999995</v>
       </c>
       <c r="O4">
-        <v>0.79959999999999998</v>
+        <v>0.67569999999999997</v>
       </c>
       <c r="P4">
-        <v>0.6764</v>
+        <v>0.59760000000000002</v>
       </c>
       <c r="Q4">
-        <v>4.8399999999999999E-2</v>
+        <v>0.2858</v>
       </c>
       <c r="R4">
-        <v>0.67279999999999995</v>
+        <v>0.25209999999999999</v>
       </c>
       <c r="S4">
-        <v>0.67569999999999997</v>
+        <v>0.16689999999999999</v>
       </c>
       <c r="T4">
-        <v>0.59760000000000002</v>
+        <v>0.5756</v>
       </c>
       <c r="U4">
-        <v>0.2858</v>
-      </c>
-      <c r="V4">
-        <v>0.25209999999999999</v>
-      </c>
-      <c r="W4">
-        <v>0.16689999999999999</v>
-      </c>
-      <c r="X4">
-        <v>0.5756</v>
-      </c>
-      <c r="Y4">
         <v>0.57420000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0.80900000000000005</v>
@@ -2406,51 +2355,39 @@
         <v>0.51190000000000002</v>
       </c>
       <c r="L5">
-        <v>0.85719999999999996</v>
+        <v>0.80520000000000003</v>
       </c>
       <c r="M5">
-        <v>3.7699999999999997E-2</v>
+        <v>0.79210000000000003</v>
       </c>
       <c r="N5">
-        <v>0.80520000000000003</v>
+        <v>0.60819999999999996</v>
       </c>
       <c r="O5">
-        <v>0.79210000000000003</v>
+        <v>0.60960000000000003</v>
       </c>
       <c r="P5">
-        <v>0.67579999999999996</v>
+        <v>0.60960000000000003</v>
       </c>
       <c r="Q5">
-        <v>3.5299999999999998E-2</v>
+        <v>0.35189999999999999</v>
       </c>
       <c r="R5">
-        <v>0.60819999999999996</v>
+        <v>0.24970000000000001</v>
       </c>
       <c r="S5">
-        <v>0.60960000000000003</v>
+        <v>0.1489</v>
       </c>
       <c r="T5">
-        <v>0.60960000000000003</v>
+        <v>0.52180000000000004</v>
       </c>
       <c r="U5">
-        <v>0.35189999999999999</v>
-      </c>
-      <c r="V5">
-        <v>0.24970000000000001</v>
-      </c>
-      <c r="W5">
-        <v>0.1489</v>
-      </c>
-      <c r="X5">
-        <v>0.52180000000000004</v>
-      </c>
-      <c r="Y5">
         <v>0.51939999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>0.84519999999999995</v>
@@ -2482,40 +2419,40 @@
       <c r="K6">
         <v>0.57079999999999997</v>
       </c>
+      <c r="L6">
+        <v>0.83609999999999995</v>
+      </c>
+      <c r="M6">
+        <v>0.82530000000000003</v>
+      </c>
       <c r="N6">
-        <v>0.83609999999999995</v>
+        <v>0.67230000000000001</v>
       </c>
       <c r="O6">
-        <v>0.82530000000000003</v>
+        <v>0.67510000000000003</v>
+      </c>
+      <c r="P6">
+        <v>0.45050000000000001</v>
+      </c>
+      <c r="Q6">
+        <v>0.22950000000000001</v>
       </c>
       <c r="R6">
-        <v>0.67230000000000001</v>
+        <v>0.246</v>
       </c>
       <c r="S6">
-        <v>0.67510000000000003</v>
+        <v>0.17780000000000001</v>
       </c>
       <c r="T6">
-        <v>0.45050000000000001</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="U6">
-        <v>0.22950000000000001</v>
-      </c>
-      <c r="V6">
-        <v>0.246</v>
-      </c>
-      <c r="W6">
-        <v>0.17780000000000001</v>
-      </c>
-      <c r="X6">
-        <v>0.51500000000000001</v>
-      </c>
-      <c r="Y6">
         <v>0.51100000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>0.87960000000000005</v>
@@ -2535,16 +2472,16 @@
       <c r="G7">
         <v>0.78449999999999998</v>
       </c>
-      <c r="R7">
+      <c r="N7">
         <v>0.67100000000000004</v>
       </c>
-      <c r="S7">
+      <c r="O7">
         <v>0.6724</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>0.87619999999999998</v>
@@ -2577,61 +2514,109 @@
         <v>0.70409999999999995</v>
       </c>
       <c r="L8">
-        <v>0.94189999999999996</v>
+        <v>0.86</v>
       </c>
       <c r="M8">
-        <v>0.28239999999999998</v>
+        <v>0.85770000000000002</v>
       </c>
       <c r="N8">
-        <v>0.86</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="O8">
-        <v>0.85770000000000002</v>
+        <v>0.58030000000000004</v>
       </c>
       <c r="P8">
-        <v>0.68589999999999995</v>
+        <v>0.52210000000000001</v>
       </c>
       <c r="Q8">
-        <v>7.5800000000000006E-2</v>
+        <v>0.29859999999999998</v>
       </c>
       <c r="R8">
+        <v>0.28349999999999997</v>
+      </c>
+      <c r="S8">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="T8">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="U8">
+        <v>0.41499999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>0.80310000000000004</v>
+      </c>
+      <c r="C10">
+        <v>0.78949999999999998</v>
+      </c>
+      <c r="D10">
+        <v>0.70409999999999995</v>
+      </c>
+      <c r="E10">
+        <v>0.70189999999999997</v>
+      </c>
+      <c r="F10">
+        <v>0.7369</v>
+      </c>
+      <c r="G10">
+        <v>0.72819999999999996</v>
+      </c>
+      <c r="H10">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="I10">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="J10">
         <v>0.58399999999999996</v>
       </c>
-      <c r="S8">
-        <v>0.58030000000000004</v>
-      </c>
-      <c r="T8">
-        <v>0.52210000000000001</v>
-      </c>
-      <c r="U8">
-        <v>0.29859999999999998</v>
-      </c>
-      <c r="V8">
-        <v>0.28349999999999997</v>
-      </c>
-      <c r="W8">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="X8">
-        <v>0.42699999999999999</v>
-      </c>
-      <c r="Y8">
-        <v>0.41499999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
-      <c r="A9" t="s">
+      <c r="K10">
+        <v>0.53620000000000001</v>
+      </c>
+      <c r="L10">
+        <v>0.80330000000000001</v>
+      </c>
+      <c r="M10">
+        <v>0.79</v>
+      </c>
+      <c r="N10">
+        <v>0.64859999999999995</v>
+      </c>
+      <c r="O10">
+        <v>0.65239999999999998</v>
+      </c>
+      <c r="P10">
+        <v>0.61760000000000004</v>
+      </c>
+      <c r="Q10">
+        <v>0.36220000000000002</v>
+      </c>
+      <c r="R10">
+        <v>0.24640000000000001</v>
+      </c>
+      <c r="S10">
+        <v>0.16819999999999999</v>
+      </c>
+      <c r="T10">
+        <v>0.53269999999999995</v>
+      </c>
+      <c r="U10">
+        <v>0.53049999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
-      <c r="A11" t="s">
-        <v>24</v>
       </c>
       <c r="B11">
         <v>0.83779999999999999</v>
@@ -2664,21 +2649,39 @@
         <v>0.60399999999999998</v>
       </c>
       <c r="L11">
-        <v>0.85809999999999997</v>
+        <v>0.83399999999999996</v>
       </c>
       <c r="M11">
-        <v>4.0899999999999999E-2</v>
+        <v>0.82420000000000004</v>
       </c>
       <c r="N11">
-        <v>0.83399999999999996</v>
+        <v>0.69379999999999997</v>
       </c>
       <c r="O11">
-        <v>0.82420000000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
+        <v>0.69689999999999996</v>
+      </c>
+      <c r="P11">
+        <v>0.56169999999999998</v>
+      </c>
+      <c r="Q11">
+        <v>0.2666</v>
+      </c>
+      <c r="R11">
+        <v>0.24490000000000001</v>
+      </c>
+      <c r="S11">
+        <v>0.17449999999999999</v>
+      </c>
+      <c r="T11">
+        <v>0.58430000000000004</v>
+      </c>
+      <c r="U11">
+        <v>0.58250000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12">
         <v>0.85</v>
@@ -2711,51 +2714,39 @@
         <v>0.65820000000000001</v>
       </c>
       <c r="L12">
-        <v>0.85870000000000002</v>
+        <v>0.83189999999999997</v>
       </c>
       <c r="M12">
-        <v>4.8300000000000003E-2</v>
+        <v>0.82150000000000001</v>
       </c>
       <c r="N12">
-        <v>0.83189999999999997</v>
+        <v>0.68989999999999996</v>
       </c>
       <c r="O12">
-        <v>0.82150000000000001</v>
+        <v>0.69259999999999999</v>
       </c>
       <c r="P12">
-        <v>0.67679999999999996</v>
+        <v>0.4703</v>
       </c>
       <c r="Q12">
-        <v>4.99E-2</v>
+        <v>0.27589999999999998</v>
       </c>
       <c r="R12">
-        <v>0.68989999999999996</v>
+        <v>0.2427</v>
       </c>
       <c r="S12">
-        <v>0.69259999999999999</v>
+        <v>0.1767</v>
       </c>
       <c r="T12">
-        <v>0.4703</v>
+        <v>0.55930000000000002</v>
       </c>
       <c r="U12">
-        <v>0.27589999999999998</v>
-      </c>
-      <c r="V12">
-        <v>0.2427</v>
-      </c>
-      <c r="W12">
-        <v>0.1767</v>
-      </c>
-      <c r="X12">
-        <v>0.55930000000000002</v>
-      </c>
-      <c r="Y12">
         <v>0.55730000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>0.99629999999999996</v>
@@ -2787,30 +2778,54 @@
       <c r="K13">
         <v>0.95679999999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:25">
+      <c r="N13">
+        <v>0.90110000000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="P13">
+        <v>0.89639999999999997</v>
+      </c>
+      <c r="Q13">
+        <v>0.86729999999999996</v>
+      </c>
+      <c r="R13">
+        <v>0.96309999999999996</v>
+      </c>
+      <c r="S13">
+        <v>0.96289999999999998</v>
+      </c>
+      <c r="T13">
+        <v>0.69830000000000003</v>
+      </c>
+      <c r="U13">
+        <v>0.69779999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
-      <c r="A16" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="X1:Y1"/>
+  <mergeCells count="10">
+    <mergeCell ref="T1:U1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
@@ -2820,8 +2835,6 @@
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qianzhiqiang/PycharmProjects/NetBenchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F665624-16E6-EF42-83AB-08708AA66406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C045F0F-7C95-D64E-9D15-81FD1C231608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="28240" windowHeight="16400" xr2:uid="{A9C37B03-D3ED-DD4C-96A1-B014332CD34F}"/>
+    <workbookView xWindow="560" yWindow="600" windowWidth="28240" windowHeight="16400" xr2:uid="{A9C37B03-D3ED-DD4C-96A1-B014332CD34F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -156,7 +156,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -189,11 +189,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u val="double"/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color theme="4"/>
       <name val="等线"/>
-      <family val="4"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -220,7 +227,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -231,6 +238,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -245,7 +255,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -565,56 +575,56 @@
   <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:M17"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="12" max="13" width="10.83203125" style="4"/>
-    <col min="16" max="17" width="10.83203125" style="8"/>
+    <col min="16" max="17" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="6" t="s">
+      <c r="I1" s="6"/>
+      <c r="J1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="5" t="s">
+      <c r="K1" s="8"/>
+      <c r="L1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5" t="s">
+      <c r="M1" s="8"/>
+      <c r="N1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="7" t="s">
+      <c r="O1" s="6"/>
+      <c r="P1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="5" t="s">
+      <c r="Q1" s="8"/>
+      <c r="R1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5" t="s">
+      <c r="S1" s="6"/>
+      <c r="T1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="5"/>
+      <c r="U1" s="6"/>
     </row>
     <row r="2" spans="1:21">
       <c r="B2" t="s">
@@ -647,10 +657,10 @@
       <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="N2" t="s">
@@ -659,10 +669,10 @@
       <c r="O2" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="R2" t="s">
@@ -712,10 +722,10 @@
       <c r="K3">
         <v>0.70020000000000004</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="4">
         <v>0.84930000000000005</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="4">
         <v>0.84450000000000003</v>
       </c>
       <c r="N3">
@@ -724,10 +734,10 @@
       <c r="O3">
         <v>0.61890000000000001</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P3" s="4">
         <v>0.57010000000000005</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="Q3" s="4">
         <v>0.30730000000000002</v>
       </c>
       <c r="R3">
@@ -777,10 +787,10 @@
       <c r="K4">
         <v>0.67020000000000002</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="4">
         <v>0.81979999999999997</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="4">
         <v>0.80889999999999995</v>
       </c>
       <c r="N4">
@@ -789,10 +799,10 @@
       <c r="O4">
         <v>0.64629999999999999</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="4">
         <v>0.54610000000000003</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="Q4" s="4">
         <v>0.28360000000000002</v>
       </c>
       <c r="R4">
@@ -842,10 +852,10 @@
       <c r="K5">
         <v>0.46679999999999999</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="4">
         <v>0.76859999999999995</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="4">
         <v>0.74839999999999995</v>
       </c>
       <c r="N5">
@@ -854,10 +864,10 @@
       <c r="O5">
         <v>0.60960000000000003</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="4">
         <v>0.60550000000000004</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="4">
         <v>0.33579999999999999</v>
       </c>
       <c r="R5">
@@ -907,10 +917,10 @@
       <c r="K6">
         <v>0.57620000000000005</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="4">
         <v>0.83420000000000005</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="4">
         <v>0.82299999999999995</v>
       </c>
       <c r="N6">
@@ -919,10 +929,10 @@
       <c r="O6">
         <v>0.6673</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="4">
         <v>0.45450000000000002</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="Q6" s="4">
         <v>0.2472</v>
       </c>
       <c r="R6">
@@ -960,18 +970,16 @@
       <c r="G7">
         <v>0.71930000000000005</v>
       </c>
-      <c r="L7"/>
-      <c r="M7"/>
       <c r="N7">
         <v>0.68200000000000005</v>
       </c>
       <c r="O7">
         <v>0.68500000000000005</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="4">
         <v>0.5978</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="Q7" s="4">
         <v>0.36059999999999998</v>
       </c>
       <c r="R7">
@@ -1021,10 +1029,10 @@
       <c r="K8">
         <v>0.71279999999999999</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="4">
         <v>0.8488</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="4">
         <v>0.84689999999999999</v>
       </c>
       <c r="N8">
@@ -1033,10 +1041,10 @@
       <c r="O8">
         <v>0.48570000000000002</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="4">
         <v>0.5181</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="Q8" s="4">
         <v>0.23499999999999999</v>
       </c>
       <c r="R8">
@@ -1053,11 +1061,9 @@
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L9"/>
-      <c r="M9"/>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
@@ -1093,10 +1099,10 @@
       <c r="K10">
         <v>0.52370000000000005</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="4">
         <v>0.80330000000000001</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="4">
         <v>0.79</v>
       </c>
       <c r="N10">
@@ -1105,10 +1111,10 @@
       <c r="O10">
         <v>0.65239999999999998</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="4">
         <v>0.5857</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="Q10" s="4">
         <v>0.39800000000000002</v>
       </c>
       <c r="R10">
@@ -1158,10 +1164,10 @@
       <c r="K11">
         <v>0.60060000000000002</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="4">
         <v>0.83130000000000004</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="4">
         <v>0.82130000000000003</v>
       </c>
       <c r="N11">
@@ -1170,10 +1176,10 @@
       <c r="O11">
         <v>0.70030000000000003</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="4">
         <v>0.55779999999999996</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="Q11" s="4">
         <v>0.25669999999999998</v>
       </c>
       <c r="R11">
@@ -1223,10 +1229,10 @@
       <c r="K12">
         <v>0.67320000000000002</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="4">
         <v>0.83120000000000005</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="4">
         <v>0.82050000000000001</v>
       </c>
       <c r="N12">
@@ -1235,10 +1241,10 @@
       <c r="O12">
         <v>0.68969999999999998</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12" s="4">
         <v>0.43070000000000003</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="Q12" s="4">
         <v>0.25750000000000001</v>
       </c>
       <c r="R12">
@@ -1288,18 +1294,22 @@
       <c r="K13">
         <v>0.78449999999999998</v>
       </c>
-      <c r="L13"/>
-      <c r="M13"/>
+      <c r="L13" s="4">
+        <v>0.7409</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0.74539999999999995</v>
+      </c>
       <c r="N13">
         <v>0.59770000000000001</v>
       </c>
       <c r="O13">
         <v>0.59419999999999995</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P13" s="4">
         <v>0.49809999999999999</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="Q13" s="4">
         <v>0.1933</v>
       </c>
       <c r="R13">
@@ -1321,13 +1331,79 @@
       </c>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="B15">
+        <v>0.73740000000000006</v>
+      </c>
+      <c r="C15">
+        <v>0.72909999999999997</v>
+      </c>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="4" t="s">
         <v>27</v>
+      </c>
+      <c r="B16">
+        <v>0.8619</v>
+      </c>
+      <c r="C16">
+        <v>0.85270000000000001</v>
+      </c>
+      <c r="D16">
+        <v>0.61209999999999998</v>
+      </c>
+      <c r="E16">
+        <v>0.60650000000000004</v>
+      </c>
+      <c r="F16">
+        <v>0.71009999999999995</v>
+      </c>
+      <c r="G16">
+        <v>0.70379999999999998</v>
+      </c>
+      <c r="H16">
+        <v>0.74670000000000003</v>
+      </c>
+      <c r="I16">
+        <v>0.68589999999999995</v>
+      </c>
+      <c r="J16">
+        <v>0.69969999999999999</v>
+      </c>
+      <c r="K16">
+        <v>0.65429999999999999</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0.83609999999999995</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0.8256</v>
+      </c>
+      <c r="N16">
+        <v>0.58579999999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.58430000000000004</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0.47049999999999997</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>0.24030000000000001</v>
+      </c>
+      <c r="R16">
+        <v>0.24779999999999999</v>
+      </c>
+      <c r="S16">
+        <v>0.1784</v>
+      </c>
+      <c r="T16">
+        <v>0.54949999999999999</v>
+      </c>
+      <c r="U16">
+        <v>0.54569999999999996</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -1357,53 +1433,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B71108-CCFD-BD42-997A-0DECA2451E6F}">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:L13"/>
+    <sheetView zoomScale="138" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5" t="s">
+      <c r="I1" s="6"/>
+      <c r="J1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5" t="s">
+      <c r="K1" s="6"/>
+      <c r="L1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5" t="s">
+      <c r="M1" s="6"/>
+      <c r="N1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5" t="s">
+      <c r="O1" s="6"/>
+      <c r="P1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5" t="s">
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5" t="s">
+      <c r="S1" s="6"/>
+      <c r="T1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="5"/>
+      <c r="U1" s="6"/>
     </row>
     <row r="2" spans="1:21">
       <c r="B2" t="s">
@@ -1854,6 +1930,12 @@
       <c r="K10">
         <v>0.95760000000000001</v>
       </c>
+      <c r="L10">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="M10">
+        <v>0.98419999999999996</v>
+      </c>
       <c r="N10">
         <v>0.9506</v>
       </c>
@@ -1871,6 +1953,12 @@
       </c>
       <c r="S10">
         <v>0.94730000000000003</v>
+      </c>
+      <c r="T10">
+        <v>0.90639999999999998</v>
+      </c>
+      <c r="U10">
+        <v>0.86780000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -2014,10 +2102,10 @@
         <v>0.74380000000000002</v>
       </c>
       <c r="F13">
-        <v>0.62729999999999997</v>
+        <v>0.75449999999999995</v>
       </c>
       <c r="G13">
-        <v>0.66800000000000004</v>
+        <v>0.74939999999999996</v>
       </c>
       <c r="N13">
         <v>0.8347</v>
@@ -2036,6 +2124,12 @@
       </c>
       <c r="S13">
         <v>0.85199999999999998</v>
+      </c>
+      <c r="T13">
+        <v>0.68979999999999997</v>
+      </c>
+      <c r="U13">
+        <v>0.74299999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -2051,6 +2145,54 @@
     <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>27</v>
+      </c>
+      <c r="B16">
+        <v>0.98760000000000003</v>
+      </c>
+      <c r="C16">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="D16">
+        <v>0.80059999999999998</v>
+      </c>
+      <c r="E16">
+        <v>0.79490000000000005</v>
+      </c>
+      <c r="F16">
+        <v>0.93210000000000004</v>
+      </c>
+      <c r="G16">
+        <v>0.9214</v>
+      </c>
+      <c r="H16">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="I16">
+        <v>0.99609999999999999</v>
+      </c>
+      <c r="J16">
+        <v>0.99480000000000002</v>
+      </c>
+      <c r="K16">
+        <v>0.99480000000000002</v>
+      </c>
+      <c r="L16">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="M16">
+        <v>0.99060000000000004</v>
+      </c>
+      <c r="N16">
+        <v>0.9224</v>
+      </c>
+      <c r="O16">
+        <v>0.90310000000000001</v>
+      </c>
+      <c r="P16">
+        <v>0.85460000000000003</v>
+      </c>
+      <c r="Q16">
+        <v>0.87660000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -2080,53 +2222,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49071FE1-A904-7348-BAAE-72F9A46C7610}">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView topLeftCell="H1" zoomScale="139" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5" t="s">
+      <c r="I1" s="6"/>
+      <c r="J1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5" t="s">
+      <c r="K1" s="6"/>
+      <c r="L1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5" t="s">
+      <c r="M1" s="6"/>
+      <c r="N1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5" t="s">
+      <c r="O1" s="6"/>
+      <c r="P1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5" t="s">
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5" t="s">
+      <c r="S1" s="6"/>
+      <c r="T1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="5"/>
+      <c r="U1" s="6"/>
     </row>
     <row r="2" spans="1:21">
       <c r="B2" t="s">
@@ -2778,6 +2920,12 @@
       <c r="K13">
         <v>0.95679999999999998</v>
       </c>
+      <c r="L13">
+        <v>0.98629999999999995</v>
+      </c>
+      <c r="M13">
+        <v>0.98570000000000002</v>
+      </c>
       <c r="N13">
         <v>0.90110000000000001</v>
       </c>
@@ -2816,6 +2964,66 @@
     <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>27</v>
+      </c>
+      <c r="B16">
+        <v>0.8589</v>
+      </c>
+      <c r="C16">
+        <v>0.84750000000000003</v>
+      </c>
+      <c r="D16">
+        <v>0.61760000000000004</v>
+      </c>
+      <c r="E16">
+        <v>0.61360000000000003</v>
+      </c>
+      <c r="F16">
+        <v>0.72450000000000003</v>
+      </c>
+      <c r="G16">
+        <v>0.71889999999999998</v>
+      </c>
+      <c r="H16">
+        <v>0.747</v>
+      </c>
+      <c r="I16">
+        <v>0.68769999999999998</v>
+      </c>
+      <c r="J16">
+        <v>0.68859999999999999</v>
+      </c>
+      <c r="K16">
+        <v>0.6371</v>
+      </c>
+      <c r="L16">
+        <v>0.83879999999999999</v>
+      </c>
+      <c r="M16">
+        <v>0.82920000000000005</v>
+      </c>
+      <c r="N16">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.64080000000000004</v>
+      </c>
+      <c r="P16">
+        <v>0.47049999999999997</v>
+      </c>
+      <c r="Q16">
+        <v>0.27950000000000003</v>
+      </c>
+      <c r="R16">
+        <v>0.24879999999999999</v>
+      </c>
+      <c r="S16">
+        <v>0.17910000000000001</v>
+      </c>
+      <c r="T16">
+        <v>0.54730000000000001</v>
+      </c>
+      <c r="U16">
+        <v>0.54379999999999995</v>
       </c>
     </row>
     <row r="17" spans="1:1">

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qianzhiqiang/PycharmProjects/NetBenchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C045F0F-7C95-D64E-9D15-81FD1C231608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9719B5E1-1F67-F343-B4A6-8DDF954A5E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="600" windowWidth="28240" windowHeight="16400" xr2:uid="{A9C37B03-D3ED-DD4C-96A1-B014332CD34F}"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="28240" windowHeight="16400" xr2:uid="{A9C37B03-D3ED-DD4C-96A1-B014332CD34F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -156,7 +156,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -190,14 +190,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="4"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF00B0F0"/>
       <name val="等线"/>
       <family val="2"/>
@@ -205,12 +197,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -227,7 +225,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -255,7 +253,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -575,7 +576,7 @@
   <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1061,8 +1062,38 @@
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="5" t="s">
         <v>20</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0.44779999999999998</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="N9">
+        <v>0.40789999999999998</v>
+      </c>
+      <c r="O9">
+        <v>0.38719999999999999</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0.47820000000000001</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="R9">
+        <v>0.25850000000000001</v>
+      </c>
+      <c r="S9">
+        <v>8.4099999999999994E-2</v>
+      </c>
+      <c r="T9">
+        <v>0.32340000000000002</v>
+      </c>
+      <c r="U9">
+        <v>0.28639999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1331,14 +1362,68 @@
       </c>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B15">
-        <v>0.73740000000000006</v>
+        <v>0.78469999999999995</v>
       </c>
       <c r="C15">
-        <v>0.72909999999999997</v>
+        <v>0.78090000000000004</v>
+      </c>
+      <c r="D15">
+        <v>0.61339999999999995</v>
+      </c>
+      <c r="E15">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="F15">
+        <v>0.73129999999999995</v>
+      </c>
+      <c r="G15">
+        <v>0.72160000000000002</v>
+      </c>
+      <c r="H15">
+        <v>0.7218</v>
+      </c>
+      <c r="I15">
+        <v>0.64780000000000004</v>
+      </c>
+      <c r="J15">
+        <v>0.52410000000000001</v>
+      </c>
+      <c r="K15">
+        <v>0.46739999999999998</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0.77790000000000004</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0.75929999999999997</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0.62660000000000005</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0.62709999999999999</v>
+      </c>
+      <c r="P15">
+        <v>0.45019999999999999</v>
+      </c>
+      <c r="Q15">
+        <v>0.19020000000000001</v>
+      </c>
+      <c r="R15" s="4">
+        <v>0.24879999999999999</v>
+      </c>
+      <c r="S15" s="4">
+        <v>0.1666</v>
+      </c>
+      <c r="T15">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="U15">
+        <v>0.32169999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1433,8 +1518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B71108-CCFD-BD42-997A-0DECA2451E6F}">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView zoomScale="138" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView zoomScale="138" zoomScaleNormal="138" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1695,6 +1780,8 @@
       <c r="G5">
         <v>0.85599999999999998</v>
       </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
       <c r="J5">
         <v>0.85570000000000002</v>
       </c>
@@ -1895,6 +1982,42 @@
       <c r="A9" t="s">
         <v>20</v>
       </c>
+      <c r="J9">
+        <v>0.80379999999999996</v>
+      </c>
+      <c r="K9">
+        <v>0.79820000000000002</v>
+      </c>
+      <c r="L9">
+        <v>0.90139999999999998</v>
+      </c>
+      <c r="M9">
+        <v>0.8841</v>
+      </c>
+      <c r="N9">
+        <v>0.88460000000000005</v>
+      </c>
+      <c r="O9">
+        <v>0.89129999999999998</v>
+      </c>
+      <c r="P9">
+        <v>0.83940000000000003</v>
+      </c>
+      <c r="Q9">
+        <v>0.86670000000000003</v>
+      </c>
+      <c r="R9">
+        <v>0.86419999999999997</v>
+      </c>
+      <c r="S9">
+        <v>0.85150000000000003</v>
+      </c>
+      <c r="T9">
+        <v>0.84619999999999995</v>
+      </c>
+      <c r="U9">
+        <v>0.86060000000000003</v>
+      </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
@@ -2101,12 +2224,22 @@
       <c r="C13">
         <v>0.74380000000000002</v>
       </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
       <c r="F13">
         <v>0.75449999999999995</v>
       </c>
       <c r="G13">
         <v>0.74939999999999996</v>
       </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="L13">
+        <v>0.85980000000000001</v>
+      </c>
+      <c r="M13">
+        <v>0.86499999999999999</v>
+      </c>
       <c r="N13">
         <v>0.8347</v>
       </c>
@@ -2114,10 +2247,10 @@
         <v>0.84630000000000005</v>
       </c>
       <c r="P13">
-        <v>0.7994</v>
+        <v>0.86639999999999995</v>
       </c>
       <c r="Q13">
-        <v>0.82499999999999996</v>
+        <v>0.87219999999999998</v>
       </c>
       <c r="R13">
         <v>0.8548</v>
@@ -2126,10 +2259,10 @@
         <v>0.85199999999999998</v>
       </c>
       <c r="T13">
-        <v>0.68979999999999997</v>
+        <v>0.752</v>
       </c>
       <c r="U13">
-        <v>0.74299999999999999</v>
+        <v>0.70530000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -2141,6 +2274,42 @@
       <c r="A15" t="s">
         <v>26</v>
       </c>
+      <c r="B15">
+        <v>0.999</v>
+      </c>
+      <c r="C15">
+        <v>0.999</v>
+      </c>
+      <c r="L15">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="M15">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="N15">
+        <v>0.98240000000000005</v>
+      </c>
+      <c r="O15">
+        <v>0.97950000000000004</v>
+      </c>
+      <c r="P15">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="Q15">
+        <v>0.95820000000000005</v>
+      </c>
+      <c r="R15">
+        <v>0.99529999999999996</v>
+      </c>
+      <c r="S15">
+        <v>0.99529999999999996</v>
+      </c>
+      <c r="T15">
+        <v>0.8982</v>
+      </c>
+      <c r="U15">
+        <v>0.91369999999999996</v>
+      </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" t="s">
@@ -2193,6 +2362,18 @@
       </c>
       <c r="Q16">
         <v>0.87660000000000005</v>
+      </c>
+      <c r="R16">
+        <v>0.9647</v>
+      </c>
+      <c r="S16">
+        <v>0.96630000000000005</v>
+      </c>
+      <c r="T16">
+        <v>0.89490000000000003</v>
+      </c>
+      <c r="U16">
+        <v>0.86309999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -2215,6 +2396,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2222,8 +2404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49071FE1-A904-7348-BAAE-72F9A46C7610}">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView zoomScale="139" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2690,6 +2872,42 @@
       <c r="A9" t="s">
         <v>20</v>
       </c>
+      <c r="J9">
+        <v>0.34110000000000001</v>
+      </c>
+      <c r="K9">
+        <v>0.2253</v>
+      </c>
+      <c r="L9">
+        <v>0.56069999999999998</v>
+      </c>
+      <c r="M9">
+        <v>0.4385</v>
+      </c>
+      <c r="N9">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.43959999999999999</v>
+      </c>
+      <c r="P9">
+        <v>0.53390000000000004</v>
+      </c>
+      <c r="Q9">
+        <v>0.22459999999999999</v>
+      </c>
+      <c r="R9">
+        <v>0.25929999999999997</v>
+      </c>
+      <c r="S9">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="T9">
+        <v>0.33760000000000001</v>
+      </c>
+      <c r="U9">
+        <v>0.32169999999999999</v>
+      </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
@@ -2959,6 +3177,66 @@
     <row r="15" spans="1:21">
       <c r="A15" t="s">
         <v>26</v>
+      </c>
+      <c r="B15">
+        <v>0.84860000000000002</v>
+      </c>
+      <c r="C15">
+        <v>0.83750000000000002</v>
+      </c>
+      <c r="D15">
+        <v>0.58220000000000005</v>
+      </c>
+      <c r="E15">
+        <v>0.57440000000000002</v>
+      </c>
+      <c r="F15">
+        <v>0.70950000000000002</v>
+      </c>
+      <c r="G15">
+        <v>0.70179999999999998</v>
+      </c>
+      <c r="H15">
+        <v>0.72840000000000005</v>
+      </c>
+      <c r="I15">
+        <v>0.65959999999999996</v>
+      </c>
+      <c r="J15">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="K15">
+        <v>0.64659999999999995</v>
+      </c>
+      <c r="L15">
+        <v>0.8357</v>
+      </c>
+      <c r="M15">
+        <v>0.82530000000000003</v>
+      </c>
+      <c r="N15">
+        <v>0.62009999999999998</v>
+      </c>
+      <c r="O15">
+        <v>0.62090000000000001</v>
+      </c>
+      <c r="P15">
+        <v>0.45440000000000003</v>
+      </c>
+      <c r="Q15">
+        <v>0.2351</v>
+      </c>
+      <c r="R15">
+        <v>0.24</v>
+      </c>
+      <c r="S15">
+        <v>0.1575</v>
+      </c>
+      <c r="T15">
+        <v>0.54979999999999996</v>
+      </c>
+      <c r="U15">
+        <v>0.5474</v>
       </c>
     </row>
     <row r="16" spans="1:21">

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qianzhiqiang/PycharmProjects/NetBenchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9719B5E1-1F67-F343-B4A6-8DDF954A5E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7083655D-2275-1740-9092-21C6F5E60D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="28240" windowHeight="16400" xr2:uid="{A9C37B03-D3ED-DD4C-96A1-B014332CD34F}"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="28240" windowHeight="16400" activeTab="1" xr2:uid="{A9C37B03-D3ED-DD4C-96A1-B014332CD34F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -244,6 +244,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -252,12 +258,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -575,7 +575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0428EAC-9C8D-1A4A-9ED3-B464BF9D83B8}">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" workbookViewId="0">
+    <sheetView zoomScale="124" workbookViewId="0">
       <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
@@ -586,46 +586,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="8"/>
+      <c r="H1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="7" t="s">
+      <c r="I1" s="8"/>
+      <c r="J1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8" t="s">
+      <c r="K1" s="10"/>
+      <c r="L1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="8"/>
-      <c r="N1" s="6" t="s">
+      <c r="M1" s="10"/>
+      <c r="N1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="8" t="s">
+      <c r="O1" s="8"/>
+      <c r="P1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="6" t="s">
+      <c r="Q1" s="10"/>
+      <c r="R1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6" t="s">
+      <c r="S1" s="8"/>
+      <c r="T1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="6"/>
+      <c r="U1" s="8"/>
     </row>
     <row r="2" spans="1:21">
       <c r="B2" t="s">
@@ -1518,53 +1518,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B71108-CCFD-BD42-997A-0DECA2451E6F}">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView zoomScale="138" zoomScaleNormal="138" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+    <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="8"/>
+      <c r="H1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6" t="s">
+      <c r="I1" s="8"/>
+      <c r="J1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6" t="s">
+      <c r="K1" s="8"/>
+      <c r="L1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6" t="s">
+      <c r="M1" s="8"/>
+      <c r="N1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6" t="s">
+      <c r="O1" s="8"/>
+      <c r="P1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6" t="s">
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6" t="s">
+      <c r="S1" s="8"/>
+      <c r="T1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="6"/>
+      <c r="U1" s="8"/>
     </row>
     <row r="2" spans="1:21">
       <c r="B2" t="s">
@@ -1780,8 +1780,8 @@
       <c r="G5">
         <v>0.85599999999999998</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
       <c r="J5">
         <v>0.85570000000000002</v>
       </c>
@@ -2224,16 +2224,22 @@
       <c r="C13">
         <v>0.74380000000000002</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
       <c r="F13">
         <v>0.75449999999999995</v>
       </c>
       <c r="G13">
         <v>0.74939999999999996</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13">
+        <v>0.7661</v>
+      </c>
+      <c r="K13">
+        <v>0.78159999999999996</v>
+      </c>
       <c r="L13">
         <v>0.85980000000000001</v>
       </c>
@@ -2411,46 +2417,46 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="8"/>
+      <c r="H1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6" t="s">
+      <c r="I1" s="8"/>
+      <c r="J1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6" t="s">
+      <c r="K1" s="8"/>
+      <c r="L1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6" t="s">
+      <c r="M1" s="8"/>
+      <c r="N1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6" t="s">
+      <c r="O1" s="8"/>
+      <c r="P1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6" t="s">
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6" t="s">
+      <c r="S1" s="8"/>
+      <c r="T1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="6"/>
+      <c r="U1" s="8"/>
     </row>
     <row r="2" spans="1:21">
       <c r="B2" t="s">

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qianzhiqiang/PycharmProjects/NetBenchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7083655D-2275-1740-9092-21C6F5E60D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFF5602-5785-4A48-9998-AB2C6DFE32EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="28240" windowHeight="16400" activeTab="1" xr2:uid="{A9C37B03-D3ED-DD4C-96A1-B014332CD34F}"/>
+    <workbookView xWindow="560" yWindow="540" windowWidth="28240" windowHeight="16400" activeTab="1" xr2:uid="{A9C37B03-D3ED-DD4C-96A1-B014332CD34F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="29">
   <si>
     <t>cora</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,10 +136,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gcn2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>line</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,6 +145,10 @@
   </si>
   <si>
     <t>gae</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -182,7 +182,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF00B0F0"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -190,7 +190,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF00B0F0"/>
+      <color theme="8"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -225,14 +225,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -241,13 +238,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -258,6 +258,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,16 +576,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0428EAC-9C8D-1A4A-9ED3-B464BF9D83B8}">
-  <dimension ref="A1:U17"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView zoomScale="124" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+    <sheetView topLeftCell="B1" zoomScale="175" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="12" max="13" width="10.83203125" style="4"/>
-    <col min="16" max="17" width="10.83203125" style="4"/>
+    <col min="12" max="13" width="10.83203125" style="3"/>
+    <col min="16" max="17" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -658,10 +661,10 @@
       <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="N2" t="s">
@@ -670,10 +673,10 @@
       <c r="O2" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="R2" t="s">
@@ -723,10 +726,10 @@
       <c r="K3">
         <v>0.70020000000000004</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="3">
         <v>0.84930000000000005</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="3">
         <v>0.84450000000000003</v>
       </c>
       <c r="N3">
@@ -735,10 +738,10 @@
       <c r="O3">
         <v>0.61890000000000001</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="3">
         <v>0.57010000000000005</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="3">
         <v>0.30730000000000002</v>
       </c>
       <c r="R3">
@@ -788,10 +791,10 @@
       <c r="K4">
         <v>0.67020000000000002</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="3">
         <v>0.81979999999999997</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <v>0.80889999999999995</v>
       </c>
       <c r="N4">
@@ -800,10 +803,10 @@
       <c r="O4">
         <v>0.64629999999999999</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="3">
         <v>0.54610000000000003</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="3">
         <v>0.28360000000000002</v>
       </c>
       <c r="R4">
@@ -853,10 +856,10 @@
       <c r="K5">
         <v>0.46679999999999999</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="3">
         <v>0.76859999999999995</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="3">
         <v>0.74839999999999995</v>
       </c>
       <c r="N5">
@@ -865,10 +868,10 @@
       <c r="O5">
         <v>0.60960000000000003</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="3">
         <v>0.60550000000000004</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="3">
         <v>0.33579999999999999</v>
       </c>
       <c r="R5">
@@ -918,10 +921,10 @@
       <c r="K6">
         <v>0.57620000000000005</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="3">
         <v>0.83420000000000005</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="3">
         <v>0.82299999999999995</v>
       </c>
       <c r="N6">
@@ -930,10 +933,10 @@
       <c r="O6">
         <v>0.6673</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="3">
         <v>0.45450000000000002</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="3">
         <v>0.2472</v>
       </c>
       <c r="R6">
@@ -971,17 +974,35 @@
       <c r="G7">
         <v>0.71930000000000005</v>
       </c>
+      <c r="H7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7">
+        <v>0.76519999999999999</v>
+      </c>
+      <c r="K7">
+        <v>0.72460000000000002</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.84460000000000002</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.83860000000000001</v>
+      </c>
       <c r="N7">
         <v>0.68200000000000005</v>
       </c>
       <c r="O7">
         <v>0.68500000000000005</v>
       </c>
-      <c r="P7" s="4">
-        <v>0.5978</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>0.36059999999999998</v>
+      <c r="P7" s="3">
+        <v>0.60580000000000001</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0.37719999999999998</v>
       </c>
       <c r="R7">
         <v>0.33239999999999997</v>
@@ -1030,10 +1051,10 @@
       <c r="K8">
         <v>0.71279999999999999</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="3">
         <v>0.8488</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="3">
         <v>0.84689999999999999</v>
       </c>
       <c r="N8">
@@ -1042,10 +1063,10 @@
       <c r="O8">
         <v>0.48570000000000002</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="3">
         <v>0.5181</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="3">
         <v>0.23499999999999999</v>
       </c>
       <c r="R8">
@@ -1062,13 +1083,13 @@
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="3">
         <v>0.44779999999999998</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="3">
         <v>0.32619999999999999</v>
       </c>
       <c r="N9">
@@ -1077,10 +1098,10 @@
       <c r="O9">
         <v>0.38719999999999999</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="3">
         <v>0.47820000000000001</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="3">
         <v>0.15240000000000001</v>
       </c>
       <c r="R9">
@@ -1130,10 +1151,10 @@
       <c r="K10">
         <v>0.52370000000000005</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="3">
         <v>0.80330000000000001</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="3">
         <v>0.79</v>
       </c>
       <c r="N10">
@@ -1142,10 +1163,10 @@
       <c r="O10">
         <v>0.65239999999999998</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="3">
         <v>0.5857</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="3">
         <v>0.39800000000000002</v>
       </c>
       <c r="R10">
@@ -1195,10 +1216,10 @@
       <c r="K11">
         <v>0.60060000000000002</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="3">
         <v>0.83130000000000004</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="3">
         <v>0.82130000000000003</v>
       </c>
       <c r="N11">
@@ -1207,10 +1228,10 @@
       <c r="O11">
         <v>0.70030000000000003</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="3">
         <v>0.55779999999999996</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="3">
         <v>0.25669999999999998</v>
       </c>
       <c r="R11">
@@ -1260,10 +1281,10 @@
       <c r="K12">
         <v>0.67320000000000002</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="3">
         <v>0.83120000000000005</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="3">
         <v>0.82050000000000001</v>
       </c>
       <c r="N12">
@@ -1272,10 +1293,10 @@
       <c r="O12">
         <v>0.68969999999999998</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="3">
         <v>0.43070000000000003</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="3">
         <v>0.25750000000000001</v>
       </c>
       <c r="R12">
@@ -1292,7 +1313,7 @@
       </c>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B13">
@@ -1325,10 +1346,10 @@
       <c r="K13">
         <v>0.78449999999999998</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="3">
         <v>0.7409</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="3">
         <v>0.74539999999999995</v>
       </c>
       <c r="N13">
@@ -1337,10 +1358,10 @@
       <c r="O13">
         <v>0.59419999999999995</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="3">
         <v>0.49809999999999999</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="3">
         <v>0.1933</v>
       </c>
       <c r="R13">
@@ -1360,140 +1381,195 @@
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="B14">
+        <v>0.78469999999999995</v>
+      </c>
+      <c r="C14">
+        <v>0.78090000000000004</v>
+      </c>
+      <c r="D14">
+        <v>0.61339999999999995</v>
+      </c>
+      <c r="E14">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="F14">
+        <v>0.73129999999999995</v>
+      </c>
+      <c r="G14">
+        <v>0.72160000000000002</v>
+      </c>
+      <c r="H14">
+        <v>0.7218</v>
+      </c>
+      <c r="I14">
+        <v>0.64780000000000004</v>
+      </c>
+      <c r="J14">
+        <v>0.52410000000000001</v>
+      </c>
+      <c r="K14">
+        <v>0.46739999999999998</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0.77790000000000004</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0.75929999999999997</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0.62660000000000005</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0.62709999999999999</v>
+      </c>
+      <c r="P14">
+        <v>0.45019999999999999</v>
+      </c>
+      <c r="Q14">
+        <v>0.19020000000000001</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0.24879999999999999</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0.1666</v>
+      </c>
+      <c r="T14">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="U14">
+        <v>0.32169999999999999</v>
+      </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B15">
-        <v>0.78469999999999995</v>
+        <v>0.8619</v>
       </c>
       <c r="C15">
-        <v>0.78090000000000004</v>
+        <v>0.85270000000000001</v>
       </c>
       <c r="D15">
-        <v>0.61339999999999995</v>
+        <v>0.61209999999999998</v>
       </c>
       <c r="E15">
-        <v>0.60699999999999998</v>
+        <v>0.60650000000000004</v>
       </c>
       <c r="F15">
-        <v>0.73129999999999995</v>
+        <v>0.71009999999999995</v>
       </c>
       <c r="G15">
-        <v>0.72160000000000002</v>
+        <v>0.70379999999999998</v>
       </c>
       <c r="H15">
-        <v>0.7218</v>
+        <v>0.74670000000000003</v>
       </c>
       <c r="I15">
-        <v>0.64780000000000004</v>
+        <v>0.68589999999999995</v>
       </c>
       <c r="J15">
-        <v>0.52410000000000001</v>
+        <v>0.69969999999999999</v>
       </c>
       <c r="K15">
-        <v>0.46739999999999998</v>
-      </c>
-      <c r="L15" s="4">
-        <v>0.77790000000000004</v>
-      </c>
-      <c r="M15" s="4">
-        <v>0.75929999999999997</v>
-      </c>
-      <c r="N15" s="4">
-        <v>0.62660000000000005</v>
-      </c>
-      <c r="O15" s="4">
-        <v>0.62709999999999999</v>
-      </c>
-      <c r="P15">
-        <v>0.45019999999999999</v>
-      </c>
-      <c r="Q15">
-        <v>0.19020000000000001</v>
-      </c>
-      <c r="R15" s="4">
-        <v>0.24879999999999999</v>
-      </c>
-      <c r="S15" s="4">
-        <v>0.1666</v>
+        <v>0.65429999999999999</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0.83609999999999995</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0.8256</v>
+      </c>
+      <c r="N15">
+        <v>0.58579999999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.58430000000000004</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0.47049999999999997</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0.24030000000000001</v>
+      </c>
+      <c r="R15">
+        <v>0.24779999999999999</v>
+      </c>
+      <c r="S15">
+        <v>0.1784</v>
       </c>
       <c r="T15">
-        <v>0.32300000000000001</v>
+        <v>0.54949999999999999</v>
       </c>
       <c r="U15">
-        <v>0.32169999999999999</v>
+        <v>0.54569999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B16">
-        <v>0.8619</v>
+        <v>0.81240000000000001</v>
       </c>
       <c r="C16">
-        <v>0.85270000000000001</v>
+        <v>0.80289999999999995</v>
       </c>
       <c r="D16">
-        <v>0.61209999999999998</v>
+        <v>0.17080000000000001</v>
       </c>
       <c r="E16">
-        <v>0.60650000000000004</v>
+        <v>9.3899999999999997E-2</v>
       </c>
       <c r="F16">
-        <v>0.71009999999999995</v>
+        <v>0.48570000000000002</v>
       </c>
       <c r="G16">
-        <v>0.70379999999999998</v>
-      </c>
-      <c r="H16">
-        <v>0.74670000000000003</v>
-      </c>
-      <c r="I16">
-        <v>0.68589999999999995</v>
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="J16">
-        <v>0.69969999999999999</v>
+        <v>0.65549999999999997</v>
       </c>
       <c r="K16">
-        <v>0.65429999999999999</v>
-      </c>
-      <c r="L16" s="4">
-        <v>0.83609999999999995</v>
-      </c>
-      <c r="M16" s="4">
-        <v>0.8256</v>
+        <v>0.57269999999999999</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0.82220000000000004</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0.81420000000000003</v>
       </c>
       <c r="N16">
-        <v>0.58579999999999999</v>
+        <v>0.55989999999999995</v>
       </c>
       <c r="O16">
-        <v>0.58430000000000004</v>
-      </c>
-      <c r="P16" s="4">
-        <v>0.47049999999999997</v>
-      </c>
-      <c r="Q16" s="4">
-        <v>0.24030000000000001</v>
+        <v>0.55820000000000003</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0.5141</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>0.29709999999999998</v>
       </c>
       <c r="R16">
-        <v>0.24779999999999999</v>
+        <v>0.25169999999999998</v>
       </c>
       <c r="S16">
-        <v>0.1784</v>
+        <v>0.1699</v>
       </c>
       <c r="T16">
-        <v>0.54949999999999999</v>
+        <v>0.23469999999999999</v>
       </c>
       <c r="U16">
-        <v>0.54569999999999996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>0.1623</v>
       </c>
     </row>
   </sheetData>
@@ -1516,10 +1592,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B71108-CCFD-BD42-997A-0DECA2451E6F}">
-  <dimension ref="A1:U17"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="J13" sqref="J13:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1780,8 +1856,8 @@
       <c r="G5">
         <v>0.85599999999999998</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
       <c r="J5">
         <v>0.85570000000000002</v>
       </c>
@@ -1906,11 +1982,47 @@
       <c r="G7">
         <v>0.88200000000000001</v>
       </c>
+      <c r="H7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="K7">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="L7">
+        <v>0.9839</v>
+      </c>
+      <c r="M7">
+        <v>0.98029999999999995</v>
+      </c>
       <c r="N7">
         <v>0.99539999999999995</v>
       </c>
       <c r="O7">
         <v>0.99370000000000003</v>
+      </c>
+      <c r="P7">
+        <v>0.97219999999999995</v>
+      </c>
+      <c r="Q7">
+        <v>0.96919999999999995</v>
+      </c>
+      <c r="R7">
+        <v>0.99029999999999996</v>
+      </c>
+      <c r="S7">
+        <v>0.98860000000000003</v>
+      </c>
+      <c r="T7">
+        <v>0.97770000000000001</v>
+      </c>
+      <c r="U7">
+        <v>0.98229999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -2224,16 +2336,16 @@
       <c r="C13">
         <v>0.74380000000000002</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
       <c r="F13">
         <v>0.75449999999999995</v>
       </c>
       <c r="G13">
         <v>0.74939999999999996</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
       <c r="J13">
         <v>0.7661</v>
       </c>
@@ -2275,46 +2387,130 @@
       <c r="A14" t="s">
         <v>25</v>
       </c>
+      <c r="B14">
+        <v>0.999</v>
+      </c>
+      <c r="C14">
+        <v>0.999</v>
+      </c>
+      <c r="D14">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="E14">
+        <v>0.63349999999999995</v>
+      </c>
+      <c r="F14">
+        <v>0.95050000000000001</v>
+      </c>
+      <c r="G14">
+        <v>0.94220000000000004</v>
+      </c>
+      <c r="H14">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="I14">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="J14">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="K14">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="L14">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="M14">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="N14">
+        <v>0.98240000000000005</v>
+      </c>
+      <c r="O14">
+        <v>0.97950000000000004</v>
+      </c>
+      <c r="P14">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="Q14">
+        <v>0.95820000000000005</v>
+      </c>
+      <c r="R14">
+        <v>0.99529999999999996</v>
+      </c>
+      <c r="S14">
+        <v>0.99529999999999996</v>
+      </c>
+      <c r="T14">
+        <v>0.8982</v>
+      </c>
+      <c r="U14">
+        <v>0.91369999999999996</v>
+      </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" t="s">
         <v>26</v>
       </c>
       <c r="B15">
-        <v>0.999</v>
+        <v>0.98760000000000003</v>
       </c>
       <c r="C15">
-        <v>0.999</v>
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="D15">
+        <v>0.80059999999999998</v>
+      </c>
+      <c r="E15">
+        <v>0.79490000000000005</v>
+      </c>
+      <c r="F15">
+        <v>0.93210000000000004</v>
+      </c>
+      <c r="G15">
+        <v>0.9214</v>
+      </c>
+      <c r="H15">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="I15">
+        <v>0.99609999999999999</v>
+      </c>
+      <c r="J15">
+        <v>0.99480000000000002</v>
+      </c>
+      <c r="K15">
+        <v>0.99480000000000002</v>
       </c>
       <c r="L15">
-        <v>0.99960000000000004</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="M15">
-        <v>0.99950000000000006</v>
+        <v>0.99060000000000004</v>
       </c>
       <c r="N15">
-        <v>0.98240000000000005</v>
+        <v>0.9224</v>
       </c>
       <c r="O15">
-        <v>0.97950000000000004</v>
+        <v>0.90310000000000001</v>
       </c>
       <c r="P15">
-        <v>0.94099999999999995</v>
+        <v>0.85460000000000003</v>
       </c>
       <c r="Q15">
-        <v>0.95820000000000005</v>
+        <v>0.87660000000000005</v>
       </c>
       <c r="R15">
-        <v>0.99529999999999996</v>
+        <v>0.9647</v>
       </c>
       <c r="S15">
-        <v>0.99529999999999996</v>
+        <v>0.96630000000000005</v>
       </c>
       <c r="T15">
-        <v>0.8982</v>
+        <v>0.89490000000000003</v>
       </c>
       <c r="U15">
-        <v>0.91369999999999996</v>
+        <v>0.86309999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -2322,69 +2518,60 @@
         <v>27</v>
       </c>
       <c r="B16">
-        <v>0.98760000000000003</v>
+        <v>0.98729999999999996</v>
       </c>
       <c r="C16">
-        <v>0.98799999999999999</v>
+        <v>0.98540000000000005</v>
       </c>
       <c r="D16">
-        <v>0.80059999999999998</v>
+        <v>0.85589999999999999</v>
       </c>
       <c r="E16">
-        <v>0.79490000000000005</v>
+        <v>0.84589999999999999</v>
       </c>
       <c r="F16">
-        <v>0.93210000000000004</v>
+        <v>0.79239999999999999</v>
       </c>
       <c r="G16">
-        <v>0.9214</v>
-      </c>
-      <c r="H16">
-        <v>0.99639999999999995</v>
-      </c>
-      <c r="I16">
-        <v>0.99609999999999999</v>
-      </c>
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
       <c r="J16">
-        <v>0.99480000000000002</v>
+        <v>0.97519999999999996</v>
       </c>
       <c r="K16">
-        <v>0.99480000000000002</v>
+        <v>0.97289999999999999</v>
       </c>
       <c r="L16">
-        <v>0.99099999999999999</v>
+        <v>0.96430000000000005</v>
       </c>
       <c r="M16">
-        <v>0.99060000000000004</v>
+        <v>0.95640000000000003</v>
       </c>
       <c r="N16">
-        <v>0.9224</v>
+        <v>0.98570000000000002</v>
       </c>
       <c r="O16">
-        <v>0.90310000000000001</v>
+        <v>0.98480000000000001</v>
       </c>
       <c r="P16">
-        <v>0.85460000000000003</v>
+        <v>0.97350000000000003</v>
       </c>
       <c r="Q16">
-        <v>0.87660000000000005</v>
+        <v>0.96879999999999999</v>
       </c>
       <c r="R16">
-        <v>0.9647</v>
+        <v>0.92879999999999996</v>
       </c>
       <c r="S16">
-        <v>0.96630000000000005</v>
+        <v>0.92330000000000001</v>
       </c>
       <c r="T16">
-        <v>0.89490000000000003</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="U16">
-        <v>0.86309999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>28</v>
+        <v>0.89059999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -2408,10 +2595,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49071FE1-A904-7348-BAAE-72F9A46C7610}">
-  <dimension ref="A1:U17"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView zoomScale="139" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2802,11 +2989,47 @@
       <c r="G7">
         <v>0.78449999999999998</v>
       </c>
+      <c r="H7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7">
+        <v>0.76590000000000003</v>
+      </c>
+      <c r="K7">
+        <v>0.72270000000000001</v>
+      </c>
+      <c r="L7">
+        <v>0.83260000000000001</v>
+      </c>
+      <c r="M7">
+        <v>0.82579999999999998</v>
+      </c>
       <c r="N7">
         <v>0.67100000000000004</v>
       </c>
       <c r="O7">
         <v>0.6724</v>
+      </c>
+      <c r="P7">
+        <v>0.52229999999999999</v>
+      </c>
+      <c r="Q7">
+        <v>0.23369999999999999</v>
+      </c>
+      <c r="R7">
+        <v>0.32090000000000002</v>
+      </c>
+      <c r="S7">
+        <v>0.2571</v>
+      </c>
+      <c r="T7">
+        <v>0.5272</v>
+      </c>
+      <c r="U7">
+        <v>0.5252</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -3179,70 +3402,130 @@
       <c r="A14" t="s">
         <v>25</v>
       </c>
+      <c r="B14">
+        <v>0.84860000000000002</v>
+      </c>
+      <c r="C14">
+        <v>0.83750000000000002</v>
+      </c>
+      <c r="D14">
+        <v>0.58220000000000005</v>
+      </c>
+      <c r="E14">
+        <v>0.57440000000000002</v>
+      </c>
+      <c r="F14">
+        <v>0.70950000000000002</v>
+      </c>
+      <c r="G14">
+        <v>0.70179999999999998</v>
+      </c>
+      <c r="H14">
+        <v>0.72840000000000005</v>
+      </c>
+      <c r="I14">
+        <v>0.65959999999999996</v>
+      </c>
+      <c r="J14">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="K14">
+        <v>0.64659999999999995</v>
+      </c>
+      <c r="L14">
+        <v>0.8357</v>
+      </c>
+      <c r="M14">
+        <v>0.82530000000000003</v>
+      </c>
+      <c r="N14">
+        <v>0.62009999999999998</v>
+      </c>
+      <c r="O14">
+        <v>0.62090000000000001</v>
+      </c>
+      <c r="P14">
+        <v>0.45440000000000003</v>
+      </c>
+      <c r="Q14">
+        <v>0.2351</v>
+      </c>
+      <c r="R14">
+        <v>0.24</v>
+      </c>
+      <c r="S14">
+        <v>0.1575</v>
+      </c>
+      <c r="T14">
+        <v>0.54979999999999996</v>
+      </c>
+      <c r="U14">
+        <v>0.5474</v>
+      </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" t="s">
         <v>26</v>
       </c>
       <c r="B15">
-        <v>0.84860000000000002</v>
+        <v>0.8589</v>
       </c>
       <c r="C15">
-        <v>0.83750000000000002</v>
+        <v>0.84750000000000003</v>
       </c>
       <c r="D15">
-        <v>0.58220000000000005</v>
+        <v>0.61760000000000004</v>
       </c>
       <c r="E15">
-        <v>0.57440000000000002</v>
+        <v>0.61360000000000003</v>
       </c>
       <c r="F15">
-        <v>0.70950000000000002</v>
+        <v>0.72450000000000003</v>
       </c>
       <c r="G15">
-        <v>0.70179999999999998</v>
+        <v>0.71889999999999998</v>
       </c>
       <c r="H15">
-        <v>0.72840000000000005</v>
+        <v>0.747</v>
       </c>
       <c r="I15">
-        <v>0.65959999999999996</v>
+        <v>0.68769999999999998</v>
       </c>
       <c r="J15">
-        <v>0.69699999999999995</v>
+        <v>0.68859999999999999</v>
       </c>
       <c r="K15">
-        <v>0.64659999999999995</v>
+        <v>0.6371</v>
       </c>
       <c r="L15">
-        <v>0.8357</v>
+        <v>0.83879999999999999</v>
       </c>
       <c r="M15">
-        <v>0.82530000000000003</v>
+        <v>0.82920000000000005</v>
       </c>
       <c r="N15">
-        <v>0.62009999999999998</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="O15">
-        <v>0.62090000000000001</v>
+        <v>0.64080000000000004</v>
       </c>
       <c r="P15">
-        <v>0.45440000000000003</v>
+        <v>0.47049999999999997</v>
       </c>
       <c r="Q15">
-        <v>0.2351</v>
+        <v>0.27950000000000003</v>
       </c>
       <c r="R15">
-        <v>0.24</v>
+        <v>0.24879999999999999</v>
       </c>
       <c r="S15">
-        <v>0.1575</v>
+        <v>0.17910000000000001</v>
       </c>
       <c r="T15">
-        <v>0.54979999999999996</v>
+        <v>0.54730000000000001</v>
       </c>
       <c r="U15">
-        <v>0.5474</v>
+        <v>0.54379999999999995</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -3250,69 +3533,64 @@
         <v>27</v>
       </c>
       <c r="B16">
-        <v>0.8589</v>
+        <v>0.82530000000000003</v>
       </c>
       <c r="C16">
-        <v>0.84750000000000003</v>
+        <v>0.82179999999999997</v>
       </c>
       <c r="D16">
-        <v>0.61760000000000004</v>
+        <v>0.46639999999999998</v>
       </c>
       <c r="E16">
-        <v>0.61360000000000003</v>
+        <v>0.4546</v>
       </c>
       <c r="F16">
-        <v>0.72450000000000003</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="G16">
-        <v>0.71889999999999998</v>
+        <v>0.68779999999999997</v>
       </c>
       <c r="H16">
-        <v>0.747</v>
+        <v>0.67679999999999996</v>
       </c>
       <c r="I16">
-        <v>0.68769999999999998</v>
+        <v>0.59340000000000004</v>
       </c>
       <c r="J16">
-        <v>0.68859999999999999</v>
+        <v>0.69279999999999997</v>
       </c>
       <c r="K16">
-        <v>0.6371</v>
+        <v>0.63990000000000002</v>
       </c>
       <c r="L16">
-        <v>0.83879999999999999</v>
+        <v>0.85019999999999996</v>
       </c>
       <c r="M16">
-        <v>0.82920000000000005</v>
+        <v>0.84389999999999998</v>
       </c>
       <c r="N16">
-        <v>0.63900000000000001</v>
+        <v>0.57879999999999998</v>
       </c>
       <c r="O16">
-        <v>0.64080000000000004</v>
+        <v>0.57250000000000001</v>
       </c>
       <c r="P16">
-        <v>0.47049999999999997</v>
+        <v>0.56579999999999997</v>
       </c>
       <c r="Q16">
-        <v>0.27950000000000003</v>
+        <v>0.26169999999999999</v>
       </c>
       <c r="R16">
-        <v>0.24879999999999999</v>
+        <v>0.28139999999999998</v>
       </c>
       <c r="S16">
-        <v>0.17910000000000001</v>
+        <v>0.1845</v>
       </c>
       <c r="T16">
-        <v>0.54730000000000001</v>
+        <v>0.39219999999999999</v>
       </c>
       <c r="U16">
-        <v>0.54379999999999995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>28</v>
+        <v>0.376</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qianzhiqiang/PycharmProjects/NetBenchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFF5602-5785-4A48-9998-AB2C6DFE32EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A04FE54-5436-0742-A943-7112F5D25642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="540" windowWidth="28240" windowHeight="16400" activeTab="1" xr2:uid="{A9C37B03-D3ED-DD4C-96A1-B014332CD34F}"/>
+    <workbookView xWindow="6900" yWindow="540" windowWidth="28240" windowHeight="16400" activeTab="2" xr2:uid="{A9C37B03-D3ED-DD4C-96A1-B014332CD34F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -156,7 +156,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -177,22 +177,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF00B0F0"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="8"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -225,7 +209,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -238,17 +222,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -258,9 +239,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0428EAC-9C8D-1A4A-9ED3-B464BF9D83B8}">
   <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="175" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView zoomScale="175" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -589,46 +567,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8" t="s">
+      <c r="G1" s="7"/>
+      <c r="H1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="9" t="s">
+      <c r="I1" s="7"/>
+      <c r="J1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10" t="s">
+      <c r="K1" s="9"/>
+      <c r="L1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="10"/>
-      <c r="N1" s="8" t="s">
+      <c r="M1" s="9"/>
+      <c r="N1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="8"/>
-      <c r="P1" s="10" t="s">
+      <c r="O1" s="7"/>
+      <c r="P1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="8" t="s">
+      <c r="Q1" s="9"/>
+      <c r="R1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8" t="s">
+      <c r="S1" s="7"/>
+      <c r="T1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="8"/>
+      <c r="U1" s="7"/>
     </row>
     <row r="2" spans="1:21">
       <c r="B2" t="s">
@@ -974,10 +952,10 @@
       <c r="G7">
         <v>0.71930000000000005</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="6" t="s">
         <v>28</v>
       </c>
       <c r="J7">
@@ -1083,8 +1061,32 @@
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="B9">
+        <v>0.40989999999999999</v>
+      </c>
+      <c r="C9">
+        <v>0.25879999999999997</v>
+      </c>
+      <c r="D9">
+        <v>0.3342</v>
+      </c>
+      <c r="E9">
+        <v>0.30730000000000002</v>
+      </c>
+      <c r="F9">
+        <v>0.37619999999999998</v>
+      </c>
+      <c r="G9">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="J9">
+        <v>0.30590000000000001</v>
+      </c>
+      <c r="K9">
+        <v>0.19059999999999999</v>
       </c>
       <c r="L9" s="3">
         <v>0.44779999999999998</v>
@@ -1508,7 +1510,7 @@
       </c>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B16">
@@ -1529,10 +1531,10 @@
       <c r="G16">
         <v>0.47799999999999998</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="6" t="s">
         <v>28</v>
       </c>
       <c r="J16">
@@ -1594,53 +1596,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B71108-CCFD-BD42-997A-0DECA2451E6F}">
   <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13:K13"/>
+    <sheetView topLeftCell="F1" zoomScale="138" zoomScaleNormal="138" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8" t="s">
+      <c r="G1" s="7"/>
+      <c r="H1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8" t="s">
+      <c r="I1" s="7"/>
+      <c r="J1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8" t="s">
+      <c r="K1" s="7"/>
+      <c r="L1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8" t="s">
+      <c r="M1" s="7"/>
+      <c r="N1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8" t="s">
+      <c r="O1" s="7"/>
+      <c r="P1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8" t="s">
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8" t="s">
+      <c r="S1" s="7"/>
+      <c r="T1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="8"/>
+      <c r="U1" s="7"/>
     </row>
     <row r="2" spans="1:21">
       <c r="B2" t="s">
@@ -1856,8 +1858,8 @@
       <c r="G5">
         <v>0.85599999999999998</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
       <c r="J5">
         <v>0.85570000000000002</v>
       </c>
@@ -1982,10 +1984,10 @@
       <c r="G7">
         <v>0.88200000000000001</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="6" t="s">
         <v>28</v>
       </c>
       <c r="J7">
@@ -2336,16 +2338,16 @@
       <c r="C13">
         <v>0.74380000000000002</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
       <c r="F13">
         <v>0.75449999999999995</v>
       </c>
       <c r="G13">
         <v>0.74939999999999996</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
       <c r="J13">
         <v>0.7661</v>
       </c>
@@ -2535,8 +2537,8 @@
       <c r="G16">
         <v>0.78749999999999998</v>
       </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
       <c r="J16">
         <v>0.97519999999999996</v>
       </c>
@@ -2597,53 +2599,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49071FE1-A904-7348-BAAE-72F9A46C7610}">
   <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView zoomScale="139" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8" t="s">
+      <c r="G1" s="7"/>
+      <c r="H1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8" t="s">
+      <c r="I1" s="7"/>
+      <c r="J1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8" t="s">
+      <c r="K1" s="7"/>
+      <c r="L1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8" t="s">
+      <c r="M1" s="7"/>
+      <c r="N1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8" t="s">
+      <c r="O1" s="7"/>
+      <c r="P1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8" t="s">
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8" t="s">
+      <c r="S1" s="7"/>
+      <c r="T1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="8"/>
+      <c r="U1" s="7"/>
     </row>
     <row r="2" spans="1:21">
       <c r="B2" t="s">
@@ -2989,10 +2991,10 @@
       <c r="G7">
         <v>0.78449999999999998</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="6" t="s">
         <v>28</v>
       </c>
       <c r="J7">
@@ -3100,6 +3102,24 @@
     <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>20</v>
+      </c>
+      <c r="B9">
+        <v>0.45639999999999997</v>
+      </c>
+      <c r="C9">
+        <v>0.37609999999999999</v>
+      </c>
+      <c r="D9">
+        <v>0.40360000000000001</v>
+      </c>
+      <c r="E9">
+        <v>0.40079999999999999</v>
+      </c>
+      <c r="F9">
+        <v>0.5504</v>
+      </c>
+      <c r="G9">
+        <v>0.53610000000000002</v>
       </c>
       <c r="J9">
         <v>0.34110000000000001</v>

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qianzhiqiang/PycharmProjects/NetBenchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A04FE54-5436-0742-A943-7112F5D25642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F037CD9-9F06-D546-873D-4CA8352EEF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="540" windowWidth="28240" windowHeight="16400" activeTab="2" xr2:uid="{A9C37B03-D3ED-DD4C-96A1-B014332CD34F}"/>
+    <workbookView xWindow="560" yWindow="540" windowWidth="28240" windowHeight="16400" xr2:uid="{A9C37B03-D3ED-DD4C-96A1-B014332CD34F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -556,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0428EAC-9C8D-1A4A-9ED3-B464BF9D83B8}">
   <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView zoomScale="175" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="175" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1596,8 +1596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B71108-CCFD-BD42-997A-0DECA2451E6F}">
   <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="138" zoomScaleNormal="138" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView zoomScale="138" zoomScaleNormal="138" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2095,6 +2095,18 @@
     <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>20</v>
+      </c>
+      <c r="B9">
+        <v>0.7792</v>
+      </c>
+      <c r="C9">
+        <v>0.79830000000000001</v>
+      </c>
+      <c r="D9">
+        <v>0.92879999999999996</v>
+      </c>
+      <c r="E9">
+        <v>0.92800000000000005</v>
       </c>
       <c r="J9">
         <v>0.80379999999999996</v>
@@ -2599,7 +2611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49071FE1-A904-7348-BAAE-72F9A46C7610}">
   <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
+    <sheetView zoomScale="139" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
